--- a/FY4 LINC Chart.xlsx
+++ b/FY4 LINC Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rrcca.sharepoint.com/sites/Dept-LTCAllStaff-77301-CoursesRunning/Shared Documents/Courses Running/LINC Charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpsingh\LINCtest\LINC\LINC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C3C41DA-FABA-4BA5-817F-D557F8BA405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC430896-C4CB-4F06-8027-CF7506A48CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring 2023" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spring 2023'!$K$3:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Summer 2023'!$A$3:$AB$3</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="737">
   <si>
     <t>LINC Chart and Assignment Timetable</t>
   </si>
@@ -2749,6 +2749,9 @@
   <si>
     <t>SEMR-9602 Onboarding Digital Skills 1  12 F2023WI</t>
   </si>
+  <si>
+    <t>Gurinder</t>
+  </si>
 </sst>
 </file>
 
@@ -2759,7 +2762,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4408,6 +4411,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4424,21 +4442,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4819,37 +4822,37 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="84" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="107" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.28515625" style="3" customWidth="1"/>
-    <col min="21" max="22" width="14.28515625" style="3" customWidth="1"/>
-    <col min="23" max="26" width="14.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="96" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="107" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="63" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.26953125" style="3" customWidth="1"/>
+    <col min="21" max="22" width="14.26953125" style="3" customWidth="1"/>
+    <col min="23" max="26" width="14.26953125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" style="96" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="44"/>
       <c r="C1" s="276" t="s">
@@ -4877,7 +4880,7 @@
       <c r="AA1" s="91"/>
       <c r="AB1" s="97"/>
     </row>
-    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="277" t="s">
         <v>1</v>
@@ -4912,7 +4915,7 @@
       <c r="AA2" s="92"/>
       <c r="AB2" s="30"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +4979,7 @@
       <c r="AA3" s="93"/>
       <c r="AB3" s="16"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -5050,7 +5053,7 @@
       </c>
       <c r="AB4" s="16"/>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -5193,7 +5196,7 @@
       </c>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -5267,7 +5270,7 @@
       </c>
       <c r="AB7" s="16"/>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -5341,7 +5344,7 @@
       </c>
       <c r="AB8" s="16"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -5410,7 +5413,7 @@
       </c>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -5479,7 +5482,7 @@
       </c>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -5546,7 +5549,7 @@
       <c r="AA11" s="93"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -5611,7 +5614,7 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="16"/>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -5674,7 +5677,7 @@
       <c r="AA13" s="93"/>
       <c r="AB13" s="16"/>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>11</v>
       </c>
@@ -5737,7 +5740,7 @@
       <c r="AA14" s="93"/>
       <c r="AB14" s="16"/>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>12</v>
       </c>
@@ -5800,7 +5803,7 @@
       <c r="AA15" s="93"/>
       <c r="AB15" s="16"/>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>13</v>
       </c>
@@ -5863,7 +5866,7 @@
       <c r="AA16" s="93"/>
       <c r="AB16" s="16"/>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>14</v>
       </c>
@@ -5926,7 +5929,7 @@
       <c r="AA17" s="93"/>
       <c r="AB17" s="16"/>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>15</v>
       </c>
@@ -5991,7 +5994,7 @@
       <c r="AA18" s="93"/>
       <c r="AB18" s="16"/>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>16</v>
       </c>
@@ -6054,7 +6057,7 @@
       <c r="AA19" s="93"/>
       <c r="AB19" s="16"/>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>17</v>
       </c>
@@ -6117,7 +6120,7 @@
       <c r="AA20" s="93"/>
       <c r="AB20" s="16"/>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>18</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>19</v>
       </c>
@@ -6243,7 +6246,7 @@
       <c r="AA22" s="93"/>
       <c r="AB22" s="16"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>20</v>
       </c>
@@ -6306,7 +6309,7 @@
       <c r="AA23" s="93"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>21</v>
       </c>
@@ -6369,7 +6372,7 @@
       <c r="AA24" s="93"/>
       <c r="AB24" s="16"/>
     </row>
-    <row r="25" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>22</v>
       </c>
@@ -6435,7 +6438,7 @@
       <c r="AA25" s="93"/>
       <c r="AB25" s="98"/>
     </row>
-    <row r="26" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>23</v>
       </c>
@@ -6501,7 +6504,7 @@
       <c r="AA26" s="93"/>
       <c r="AB26" s="98"/>
     </row>
-    <row r="27" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>24</v>
       </c>
@@ -6567,7 +6570,7 @@
       <c r="AA27" s="93"/>
       <c r="AB27" s="98"/>
     </row>
-    <row r="28" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>25</v>
       </c>
@@ -6625,7 +6628,7 @@
       <c r="AA28" s="93"/>
       <c r="AB28" s="98"/>
     </row>
-    <row r="29" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>26</v>
       </c>
@@ -6683,7 +6686,7 @@
       <c r="AA29" s="93"/>
       <c r="AB29" s="98"/>
     </row>
-    <row r="30" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>27</v>
       </c>
@@ -6741,7 +6744,7 @@
       <c r="AA30" s="93"/>
       <c r="AB30" s="98"/>
     </row>
-    <row r="31" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>28</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>29</v>
       </c>
@@ -6859,7 +6862,7 @@
       <c r="AA32" s="93"/>
       <c r="AB32" s="98"/>
     </row>
-    <row r="33" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>30</v>
       </c>
@@ -6917,7 +6920,7 @@
       <c r="AA33" s="93"/>
       <c r="AB33" s="98"/>
     </row>
-    <row r="34" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>31</v>
       </c>
@@ -6975,7 +6978,7 @@
       <c r="AA34" s="93"/>
       <c r="AB34" s="98"/>
     </row>
-    <row r="35" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>32</v>
       </c>
@@ -7032,7 +7035,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="98"/>
     </row>
-    <row r="36" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>33</v>
       </c>
@@ -7089,7 +7092,7 @@
       <c r="AA36" s="93"/>
       <c r="AB36" s="98"/>
     </row>
-    <row r="37" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="37" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>34</v>
       </c>
@@ -7144,7 +7147,7 @@
       <c r="AA37" s="93"/>
       <c r="AB37" s="98"/>
     </row>
-    <row r="38" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="38" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>35</v>
       </c>
@@ -7200,7 +7203,7 @@
       <c r="AA38" s="93"/>
       <c r="AB38" s="98"/>
     </row>
-    <row r="39" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="39" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>36</v>
       </c>
@@ -7256,7 +7259,7 @@
       <c r="AA39" s="93"/>
       <c r="AB39" s="98"/>
     </row>
-    <row r="40" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="40" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>37</v>
       </c>
@@ -7312,7 +7315,7 @@
       <c r="AA40" s="93"/>
       <c r="AB40" s="98"/>
     </row>
-    <row r="41" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="41" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>38</v>
       </c>
@@ -7368,7 +7371,7 @@
       <c r="AA41" s="93"/>
       <c r="AB41" s="98"/>
     </row>
-    <row r="42" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="42" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>132</v>
       </c>
@@ -7419,7 +7422,7 @@
       <c r="AA42" s="93"/>
       <c r="AB42" s="98"/>
     </row>
-    <row r="43" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>135</v>
       </c>
@@ -7472,7 +7475,7 @@
       <c r="AA43" s="93"/>
       <c r="AB43" s="98"/>
     </row>
-    <row r="44" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>138</v>
       </c>
@@ -7525,7 +7528,7 @@
       <c r="AA44" s="93"/>
       <c r="AB44" s="98"/>
     </row>
-    <row r="45" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>140</v>
       </c>
@@ -7578,7 +7581,7 @@
       <c r="AA45" s="93"/>
       <c r="AB45" s="98"/>
     </row>
-    <row r="46" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>143</v>
       </c>
@@ -7631,7 +7634,7 @@
       <c r="AA46" s="93"/>
       <c r="AB46" s="98"/>
     </row>
-    <row r="47" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>145</v>
       </c>
@@ -7684,7 +7687,7 @@
       <c r="AA47" s="93"/>
       <c r="AB47" s="98"/>
     </row>
-    <row r="48" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>147</v>
       </c>
@@ -7737,7 +7740,7 @@
       <c r="AA48" s="93"/>
       <c r="AB48" s="98"/>
     </row>
-    <row r="49" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>150</v>
       </c>
@@ -7790,7 +7793,7 @@
       <c r="AA49" s="93"/>
       <c r="AB49" s="98"/>
     </row>
-    <row r="50" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>152</v>
       </c>
@@ -7843,7 +7846,7 @@
       <c r="AA50" s="93"/>
       <c r="AB50" s="98"/>
     </row>
-    <row r="51" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>155</v>
       </c>
@@ -7896,7 +7899,7 @@
       <c r="AA51" s="93"/>
       <c r="AB51" s="98"/>
     </row>
-    <row r="52" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>157</v>
       </c>
@@ -7949,7 +7952,7 @@
       <c r="AA52" s="93"/>
       <c r="AB52" s="98"/>
     </row>
-    <row r="53" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>159</v>
       </c>
@@ -8002,7 +8005,7 @@
       <c r="AA53" s="93"/>
       <c r="AB53" s="98"/>
     </row>
-    <row r="54" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>161</v>
       </c>
@@ -8055,7 +8058,7 @@
       <c r="AA54" s="93"/>
       <c r="AB54" s="98"/>
     </row>
-    <row r="55" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="55" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>163</v>
       </c>
@@ -8108,7 +8111,7 @@
       <c r="AA55" s="93"/>
       <c r="AB55" s="98"/>
     </row>
-    <row r="56" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="56" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>165</v>
       </c>
@@ -8161,7 +8164,7 @@
       <c r="AA56" s="93"/>
       <c r="AB56" s="98"/>
     </row>
-    <row r="57" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="57" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>167</v>
       </c>
@@ -8214,7 +8217,7 @@
       <c r="AA57" s="93"/>
       <c r="AB57" s="98"/>
     </row>
-    <row r="58" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="58" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>169</v>
       </c>
@@ -8267,7 +8270,7 @@
       <c r="AA58" s="93"/>
       <c r="AB58" s="98"/>
     </row>
-    <row r="59" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="59" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>171</v>
       </c>
@@ -8320,7 +8323,7 @@
       <c r="AA59" s="93"/>
       <c r="AB59" s="98"/>
     </row>
-    <row r="60" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="60" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="39"/>
       <c r="B60" s="172" t="s">
         <v>173</v>
@@ -8351,7 +8354,7 @@
       <c r="AA60" s="93"/>
       <c r="AB60" s="98"/>
     </row>
-    <row r="61" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="61" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="140"/>
       <c r="B61" s="172" t="s">
         <v>174</v>
@@ -8391,7 +8394,7 @@
       <c r="AA61" s="93"/>
       <c r="AB61" s="98"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="20"/>
       <c r="B62" s="25"/>
       <c r="C62" s="60"/>
@@ -8414,7 +8417,7 @@
       <c r="T62" s="18"/>
       <c r="AB62" s="19"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB63" s="19"/>
     </row>
   </sheetData>
@@ -8447,34 +8450,34 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="62" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="20.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="3" customWidth="1"/>
-    <col min="23" max="25" width="13.85546875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" style="11" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="9" width="15.7265625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20.7265625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" style="3" customWidth="1"/>
+    <col min="23" max="25" width="13.81640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="65.26953125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="25.7265625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="25.7265625" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="44"/>
       <c r="C1" s="276" t="s">
@@ -8501,7 +8504,7 @@
       <c r="V1" s="42"/>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:27" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="277" t="s">
         <v>1</v>
@@ -8535,7 +8538,7 @@
       <c r="Y2" s="37"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="146" t="s">
         <v>5</v>
@@ -8596,7 +8599,7 @@
       <c r="V3" s="43"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="151" t="s">
         <v>666</v>
@@ -8665,7 +8668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="151" t="s">
         <v>670</v>
@@ -8734,7 +8737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="151" t="s">
         <v>674</v>
@@ -8798,7 +8801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="151" t="s">
         <v>678</v>
@@ -8867,7 +8870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="151" t="s">
         <v>681</v>
@@ -8936,7 +8939,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="151" t="s">
         <v>683</v>
@@ -9000,7 +9003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="151" t="s">
         <v>684</v>
@@ -9064,7 +9067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="151" t="s">
         <v>686</v>
@@ -9124,7 +9127,7 @@
       <c r="U11" s="16"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="151" t="s">
         <v>687</v>
@@ -9184,7 +9187,7 @@
       <c r="U12" s="16"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="151" t="s">
         <v>688</v>
@@ -9242,7 +9245,7 @@
       <c r="U13" s="16"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="151" t="s">
         <v>689</v>
@@ -9300,7 +9303,7 @@
       <c r="U14" s="16"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="151" t="s">
         <v>690</v>
@@ -9358,7 +9361,7 @@
       <c r="U15" s="142"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="151" t="s">
         <v>692</v>
@@ -9416,7 +9419,7 @@
       <c r="U16" s="16"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="151" t="s">
         <v>693</v>
@@ -9474,7 +9477,7 @@
       <c r="U17" s="16"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="151" t="s">
         <v>694</v>
@@ -9534,7 +9537,7 @@
       <c r="U18" s="16"/>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="151" t="s">
         <v>696</v>
@@ -9592,7 +9595,7 @@
       <c r="U19" s="142"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="151" t="s">
         <v>697</v>
@@ -9650,7 +9653,7 @@
       <c r="U20" s="142"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="231" t="s">
         <v>698</v>
@@ -9708,7 +9711,7 @@
       <c r="U21" s="142"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="151" t="s">
         <v>699</v>
@@ -9766,7 +9769,7 @@
       <c r="U22" s="142"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="231" t="s">
         <v>700</v>
@@ -9824,7 +9827,7 @@
       <c r="U23" s="142"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="151" t="s">
         <v>701</v>
@@ -9882,7 +9885,7 @@
       <c r="U24" s="142"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="151" t="s">
         <v>702</v>
@@ -9943,7 +9946,7 @@
       <c r="V25" s="2"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39"/>
       <c r="B26" s="151" t="s">
         <v>703</v>
@@ -10004,7 +10007,7 @@
       <c r="V26" s="2"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
         <v>704</v>
       </c>
@@ -10067,7 +10070,7 @@
       <c r="V27" s="2"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
         <v>704</v>
       </c>
@@ -10128,7 +10131,7 @@
       <c r="V28" s="2"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
         <v>704</v>
       </c>
@@ -10189,7 +10192,7 @@
       <c r="V29" s="2"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>704</v>
       </c>
@@ -10256,7 +10259,7 @@
       </c>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>704</v>
       </c>
@@ -10317,7 +10320,7 @@
       <c r="V31" s="2"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>704</v>
       </c>
@@ -10378,7 +10381,7 @@
       <c r="V32" s="2"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="39" t="s">
         <v>704</v>
       </c>
@@ -10439,7 +10442,7 @@
       <c r="V33" s="2"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39" t="s">
         <v>704</v>
       </c>
@@ -10502,7 +10505,7 @@
       <c r="V34" s="2"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="39" t="s">
         <v>704</v>
       </c>
@@ -10563,7 +10566,7 @@
       <c r="V35" s="2"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
         <v>704</v>
       </c>
@@ -10624,7 +10627,7 @@
       <c r="V36" s="2"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>704</v>
       </c>
@@ -10685,7 +10688,7 @@
       <c r="V37" s="2"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="38" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>704</v>
       </c>
@@ -10746,7 +10749,7 @@
       <c r="V38" s="2"/>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="39" t="s">
         <v>704</v>
       </c>
@@ -10806,12 +10809,12 @@
       <c r="U39" s="16"/>
       <c r="V39" s="2"/>
       <c r="W39" s="33" t="e" cm="1">
-        <f t="array" ref="W39">_xludf.day</f>
+        <f t="array" ref="W39">day</f>
         <v>#NAME?</v>
       </c>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="39" t="s">
         <v>704</v>
       </c>
@@ -10872,7 +10875,7 @@
       <c r="V40" s="2"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>704</v>
       </c>
@@ -10933,7 +10936,7 @@
       <c r="V41" s="2"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39" t="s">
         <v>704</v>
       </c>
@@ -10994,7 +10997,7 @@
       <c r="V42" s="2"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="39" t="s">
         <v>704</v>
       </c>
@@ -11055,7 +11058,7 @@
       <c r="V43" s="2"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>704</v>
       </c>
@@ -11116,7 +11119,7 @@
       <c r="V44" s="2"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="39"/>
       <c r="B45" s="151" t="s">
         <v>722</v>
@@ -11177,7 +11180,7 @@
       <c r="V45" s="2"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="39"/>
       <c r="B46" s="151" t="s">
         <v>724</v>
@@ -11236,7 +11239,7 @@
       <c r="V46" s="2"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="39"/>
       <c r="B47" s="151" t="s">
         <v>726</v>
@@ -11297,7 +11300,7 @@
       <c r="V47" s="2"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="39"/>
       <c r="B48" s="151" t="s">
         <v>727</v>
@@ -11358,7 +11361,7 @@
       <c r="V48" s="2"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="39"/>
       <c r="B49" s="151" t="s">
         <v>728</v>
@@ -11417,7 +11420,7 @@
       <c r="V49" s="2"/>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="39"/>
       <c r="B50" s="151" t="s">
         <v>729</v>
@@ -11476,7 +11479,7 @@
       <c r="V50" s="2"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="39"/>
       <c r="B51" s="151" t="s">
         <v>730</v>
@@ -11537,7 +11540,7 @@
       <c r="V51" s="2"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="39"/>
       <c r="B52" s="151" t="s">
         <v>731</v>
@@ -11596,7 +11599,7 @@
       <c r="V52" s="2"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="39"/>
       <c r="B53" s="151" t="s">
         <v>733</v>
@@ -11657,7 +11660,7 @@
       <c r="V53" s="2"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="39"/>
       <c r="B54" s="151" t="s">
         <v>734</v>
@@ -11716,7 +11719,7 @@
       <c r="V54" s="2"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" s="33" customFormat="1" ht="33.6" customHeight="1">
+    <row r="55" spans="1:27" s="33" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="39"/>
       <c r="B55" s="151" t="s">
         <v>735</v>
@@ -11759,7 +11762,7 @@
       <c r="V55" s="2"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" s="33" customFormat="1" ht="33.6" customHeight="1">
+    <row r="56" spans="1:27" s="33" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="39"/>
       <c r="B56" s="151" t="s">
         <v>735</v>
@@ -11802,7 +11805,7 @@
       <c r="V56" s="2"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" s="33" customFormat="1" ht="33.6" customHeight="1">
+    <row r="57" spans="1:27" s="33" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="39"/>
       <c r="B57" s="151" t="s">
         <v>735</v>
@@ -11845,7 +11848,7 @@
       <c r="V57" s="2"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" s="33" customFormat="1" ht="33.6" customHeight="1">
+    <row r="58" spans="1:27" s="33" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="39"/>
       <c r="B58" s="151" t="s">
         <v>735</v>
@@ -11888,7 +11891,7 @@
       <c r="V58" s="2"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" s="33" customFormat="1" ht="33.6" customHeight="1">
+    <row r="59" spans="1:27" s="33" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="39"/>
       <c r="B59" s="151" t="s">
         <v>735</v>
@@ -11931,7 +11934,7 @@
       <c r="V59" s="2"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" s="33" customFormat="1" ht="33.6" customHeight="1">
+    <row r="60" spans="1:27" s="33" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="39"/>
       <c r="B60" s="151" t="s">
         <v>735</v>
@@ -11974,7 +11977,7 @@
       <c r="V60" s="2"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="61" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="39"/>
       <c r="B61" s="185"/>
       <c r="C61" s="186"/>
@@ -11999,7 +12002,7 @@
       <c r="V61" s="2"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="62" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="39"/>
       <c r="B62" s="172" t="s">
         <v>173</v>
@@ -12029,7 +12032,7 @@
       <c r="V62" s="2"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="63" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="140"/>
       <c r="B63" s="172" t="s">
         <v>174</v>
@@ -12068,7 +12071,7 @@
       <c r="V63" s="2"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="20"/>
       <c r="B64" s="25"/>
       <c r="C64" s="60"/>
@@ -12123,36 +12126,36 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="62" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="84" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="3" customWidth="1"/>
-    <col min="23" max="25" width="13.85546875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" style="11" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7265625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="84" customWidth="1"/>
+    <col min="6" max="9" width="15.7265625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="10.7265625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" style="3" customWidth="1"/>
+    <col min="23" max="25" width="13.81640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="65.26953125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="25.7265625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="25.7265625" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="44"/>
       <c r="C1" s="276" t="s">
@@ -12179,7 +12182,7 @@
       <c r="V1" s="42"/>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:27" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="277" t="s">
         <v>1</v>
@@ -12213,7 +12216,7 @@
       <c r="Y2" s="37"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="146" t="s">
         <v>5</v>
@@ -12274,7 +12277,7 @@
       <c r="V3" s="43"/>
       <c r="AA3" s="9"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>100</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>101</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>102</v>
       </c>
@@ -12463,7 +12466,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>103</v>
       </c>
@@ -12522,7 +12525,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>104</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>105</v>
       </c>
@@ -12640,7 +12643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>106</v>
       </c>
@@ -12699,7 +12702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>107</v>
       </c>
@@ -12756,7 +12759,7 @@
       <c r="U11" s="16"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>108</v>
       </c>
@@ -12813,7 +12816,7 @@
       <c r="U12" s="16"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>109</v>
       </c>
@@ -12870,7 +12873,7 @@
       <c r="U13" s="142"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>110</v>
       </c>
@@ -12927,7 +12930,7 @@
       <c r="U14" s="142"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>111</v>
       </c>
@@ -12985,7 +12988,7 @@
       <c r="V15" s="2"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>112</v>
       </c>
@@ -13042,7 +13045,7 @@
       <c r="V16" s="2"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>113</v>
       </c>
@@ -13100,7 +13103,7 @@
       <c r="V17" s="2"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>114</v>
       </c>
@@ -13158,7 +13161,7 @@
       <c r="V18" s="2"/>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>115</v>
       </c>
@@ -13216,7 +13219,7 @@
       <c r="V19" s="2"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>116</v>
       </c>
@@ -13274,7 +13277,7 @@
       <c r="V20" s="2"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>117</v>
       </c>
@@ -13332,7 +13335,7 @@
       <c r="V21" s="2"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>118</v>
       </c>
@@ -13390,7 +13393,7 @@
       <c r="V22" s="2"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>119</v>
       </c>
@@ -13448,7 +13451,7 @@
       <c r="V23" s="2"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>120</v>
       </c>
@@ -13506,7 +13509,7 @@
       <c r="V24" s="2"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>121</v>
       </c>
@@ -13564,7 +13567,7 @@
       <c r="V25" s="2"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>122</v>
       </c>
@@ -13620,7 +13623,7 @@
       <c r="U26" s="16"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>123</v>
       </c>
@@ -13677,7 +13680,7 @@
       <c r="U27" s="16"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>124</v>
       </c>
@@ -13734,7 +13737,7 @@
       <c r="U28" s="142"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>125</v>
       </c>
@@ -13791,7 +13794,7 @@
       <c r="U29" s="142"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>126</v>
       </c>
@@ -13848,7 +13851,7 @@
       <c r="U30" s="142"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>127</v>
       </c>
@@ -13905,7 +13908,7 @@
       <c r="U31" s="142"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="32" spans="1:27" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>128</v>
       </c>
@@ -13962,7 +13965,7 @@
       <c r="U32" s="142"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>129</v>
       </c>
@@ -14019,7 +14022,7 @@
       <c r="U33" s="142"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:27" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>130</v>
       </c>
@@ -14076,7 +14079,7 @@
       <c r="U34" s="142"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>131</v>
       </c>
@@ -14132,7 +14135,7 @@
       <c r="V35" s="2"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>132</v>
       </c>
@@ -14189,7 +14192,7 @@
       <c r="V36" s="2"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>133</v>
       </c>
@@ -14247,7 +14250,7 @@
       <c r="V37" s="2"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="38" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>134</v>
       </c>
@@ -14305,7 +14308,7 @@
       <c r="V38" s="2"/>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>135</v>
       </c>
@@ -14363,7 +14366,7 @@
       <c r="V39" s="2"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>136</v>
       </c>
@@ -14421,7 +14424,7 @@
       <c r="V40" s="2"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>137</v>
       </c>
@@ -14479,7 +14482,7 @@
       <c r="V41" s="2"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>138</v>
       </c>
@@ -14537,7 +14540,7 @@
       <c r="V42" s="2"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>139</v>
       </c>
@@ -14595,7 +14598,7 @@
       <c r="V43" s="2"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>140</v>
       </c>
@@ -14653,7 +14656,7 @@
       <c r="V44" s="2"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>141</v>
       </c>
@@ -14709,7 +14712,7 @@
       <c r="V45" s="2"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>142</v>
       </c>
@@ -14767,7 +14770,7 @@
       <c r="V46" s="2"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>143</v>
       </c>
@@ -14823,7 +14826,7 @@
       <c r="V47" s="2"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>144</v>
       </c>
@@ -14881,7 +14884,7 @@
       <c r="V48" s="2"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>145</v>
       </c>
@@ -14939,7 +14942,7 @@
       <c r="V49" s="2"/>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>146</v>
       </c>
@@ -14995,7 +14998,7 @@
       <c r="V50" s="2"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>147</v>
       </c>
@@ -15059,7 +15062,7 @@
       <c r="V51" s="2"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="39"/>
       <c r="B52" s="185"/>
       <c r="C52" s="186"/>
@@ -15084,7 +15087,7 @@
       <c r="V52" s="2"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="39"/>
       <c r="B53" s="172" t="s">
         <v>173</v>
@@ -15114,7 +15117,7 @@
       <c r="V53" s="2"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="1:27" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="140"/>
       <c r="B54" s="172" t="s">
         <v>174</v>
@@ -15153,7 +15156,7 @@
       <c r="V54" s="2"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="25"/>
       <c r="C55" s="60"/>
@@ -15206,41 +15209,41 @@
   <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="34.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="34.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="15" style="62" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="47" customWidth="1"/>
-    <col min="6" max="8" width="12.42578125" style="63" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="59.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="47" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" style="50" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="10.7265625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="59.26953125" style="21" customWidth="1"/>
     <col min="23" max="23" width="15" style="255" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="255" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="19" customWidth="1"/>
+    <col min="24" max="24" width="13.81640625" style="255" customWidth="1"/>
+    <col min="25" max="25" width="13.81640625" style="19" customWidth="1"/>
     <col min="26" max="26" width="17" style="4" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" style="96" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="102" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="27" max="27" width="25.7265625" style="96" customWidth="1"/>
+    <col min="28" max="28" width="25.7265625" style="102" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="44"/>
       <c r="C1" s="276" t="s">
@@ -15271,7 +15274,7 @@
       <c r="AA1" s="91"/>
       <c r="AB1" s="99"/>
     </row>
-    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="277" t="s">
         <v>1</v>
@@ -15308,7 +15311,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="146" t="s">
         <v>5</v>
@@ -15375,7 +15378,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>200</v>
       </c>
@@ -15449,7 +15452,7 @@
       </c>
       <c r="AB4" s="100"/>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>201</v>
       </c>
@@ -15523,7 +15526,7 @@
       </c>
       <c r="AB5" s="100"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>202</v>
       </c>
@@ -15595,7 +15598,7 @@
       </c>
       <c r="AB6" s="100"/>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>203</v>
       </c>
@@ -15665,7 +15668,7 @@
       <c r="AA7" s="95"/>
       <c r="AB7" s="100"/>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>204</v>
       </c>
@@ -15735,7 +15738,7 @@
       <c r="AA8" s="95"/>
       <c r="AB8" s="100"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>205</v>
       </c>
@@ -15809,7 +15812,7 @@
       </c>
       <c r="AB9" s="100"/>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>206</v>
       </c>
@@ -15879,7 +15882,7 @@
       <c r="AA10" s="95"/>
       <c r="AB10" s="100"/>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>207</v>
       </c>
@@ -15953,7 +15956,7 @@
       </c>
       <c r="AB11" s="100"/>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>208</v>
       </c>
@@ -16025,7 +16028,7 @@
       </c>
       <c r="AB12" s="100"/>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>209</v>
       </c>
@@ -16097,7 +16100,7 @@
       </c>
       <c r="AB13" s="100"/>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>210</v>
       </c>
@@ -16167,7 +16170,7 @@
       <c r="AA14" s="93"/>
       <c r="AB14" s="100"/>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>211</v>
       </c>
@@ -16235,7 +16238,7 @@
       <c r="AA15" s="93"/>
       <c r="AB15" s="100"/>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>212</v>
       </c>
@@ -16301,7 +16304,7 @@
       <c r="AA16" s="93"/>
       <c r="AB16" s="100"/>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>213</v>
       </c>
@@ -16367,7 +16370,7 @@
       <c r="AA17" s="93"/>
       <c r="AB17" s="100"/>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>214</v>
       </c>
@@ -16433,7 +16436,7 @@
       <c r="AA18" s="93"/>
       <c r="AB18" s="100"/>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>215</v>
       </c>
@@ -16499,7 +16502,7 @@
       <c r="AA19" s="93"/>
       <c r="AB19" s="100"/>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>216</v>
       </c>
@@ -16565,7 +16568,7 @@
       <c r="AA20" s="93"/>
       <c r="AB20" s="100"/>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>217</v>
       </c>
@@ -16633,7 +16636,7 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="100"/>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>218</v>
       </c>
@@ -16701,7 +16704,7 @@
       <c r="AA22" s="93"/>
       <c r="AB22" s="100"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>219</v>
       </c>
@@ -16769,7 +16772,7 @@
       <c r="AA23" s="93"/>
       <c r="AB23" s="100"/>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>220</v>
       </c>
@@ -16837,7 +16840,7 @@
       <c r="AA24" s="93"/>
       <c r="AB24" s="100"/>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>221</v>
       </c>
@@ -16903,7 +16906,7 @@
       <c r="AA25" s="93"/>
       <c r="AB25" s="100"/>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>222</v>
       </c>
@@ -16969,7 +16972,7 @@
       <c r="AA26" s="93"/>
       <c r="AB26" s="100"/>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>223</v>
       </c>
@@ -17035,7 +17038,7 @@
       <c r="AA27" s="93"/>
       <c r="AB27" s="100"/>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>224</v>
       </c>
@@ -17101,7 +17104,7 @@
       <c r="AA28" s="93"/>
       <c r="AB28" s="100"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>225</v>
       </c>
@@ -17169,7 +17172,7 @@
       <c r="AA29" s="93"/>
       <c r="AB29" s="100"/>
     </row>
-    <row r="30" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="274">
         <v>226</v>
       </c>
@@ -17237,7 +17240,7 @@
       <c r="AA30" s="93"/>
       <c r="AB30" s="101"/>
     </row>
-    <row r="31" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>228</v>
       </c>
@@ -17303,7 +17306,7 @@
       <c r="AA31" s="93"/>
       <c r="AB31" s="101"/>
     </row>
-    <row r="32" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>229</v>
       </c>
@@ -17371,7 +17374,7 @@
       <c r="AA32" s="93"/>
       <c r="AB32" s="101"/>
     </row>
-    <row r="33" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>230</v>
       </c>
@@ -17437,7 +17440,7 @@
       <c r="AA33" s="93"/>
       <c r="AB33" s="101"/>
     </row>
-    <row r="34" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>231</v>
       </c>
@@ -17503,7 +17506,7 @@
       <c r="AA34" s="93"/>
       <c r="AB34" s="101"/>
     </row>
-    <row r="35" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>232</v>
       </c>
@@ -17571,7 +17574,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="101"/>
     </row>
-    <row r="36" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>233</v>
       </c>
@@ -17637,7 +17640,7 @@
       <c r="AA36" s="93"/>
       <c r="AB36" s="101"/>
     </row>
-    <row r="37" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>234</v>
       </c>
@@ -17703,7 +17706,7 @@
       <c r="AA37" s="93"/>
       <c r="AB37" s="101"/>
     </row>
-    <row r="38" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="38" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>235</v>
       </c>
@@ -17769,7 +17772,7 @@
       <c r="AA38" s="93"/>
       <c r="AB38" s="101"/>
     </row>
-    <row r="39" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>236</v>
       </c>
@@ -17835,7 +17838,7 @@
       <c r="AA39" s="93"/>
       <c r="AB39" s="101"/>
     </row>
-    <row r="40" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>237</v>
       </c>
@@ -17901,7 +17904,7 @@
       <c r="AA40" s="93"/>
       <c r="AB40" s="101"/>
     </row>
-    <row r="41" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>239</v>
       </c>
@@ -17967,7 +17970,7 @@
       <c r="AA41" s="93"/>
       <c r="AB41" s="101"/>
     </row>
-    <row r="42" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>240</v>
       </c>
@@ -18033,7 +18036,7 @@
       <c r="AA42" s="93"/>
       <c r="AB42" s="101"/>
     </row>
-    <row r="43" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>242</v>
       </c>
@@ -18099,7 +18102,7 @@
       <c r="AA43" s="93"/>
       <c r="AB43" s="101"/>
     </row>
-    <row r="44" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>243</v>
       </c>
@@ -18165,7 +18168,7 @@
       <c r="AA44" s="93"/>
       <c r="AB44" s="101"/>
     </row>
-    <row r="45" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>244</v>
       </c>
@@ -18231,7 +18234,7 @@
       <c r="AA45" s="93"/>
       <c r="AB45" s="101"/>
     </row>
-    <row r="46" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>245</v>
       </c>
@@ -18298,7 +18301,7 @@
       <c r="AB46" s="101"/>
       <c r="AC46" s="98"/>
     </row>
-    <row r="47" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>246</v>
       </c>
@@ -18364,7 +18367,7 @@
       <c r="AA47" s="93"/>
       <c r="AB47" s="101"/>
     </row>
-    <row r="48" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>247</v>
       </c>
@@ -18430,7 +18433,7 @@
       <c r="AA48" s="93"/>
       <c r="AB48" s="101"/>
     </row>
-    <row r="49" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>248</v>
       </c>
@@ -18496,7 +18499,7 @@
       <c r="AA49" s="93"/>
       <c r="AB49" s="101"/>
     </row>
-    <row r="50" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>315</v>
       </c>
@@ -18568,7 +18571,7 @@
       <c r="AA50" s="93"/>
       <c r="AB50" s="101"/>
     </row>
-    <row r="51" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>322</v>
       </c>
@@ -18636,7 +18639,7 @@
       <c r="AA51" s="93"/>
       <c r="AB51" s="101"/>
     </row>
-    <row r="52" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>251</v>
       </c>
@@ -18692,7 +18695,7 @@
       <c r="AA52" s="93"/>
       <c r="AB52" s="101"/>
     </row>
-    <row r="53" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <v>252</v>
       </c>
@@ -18748,7 +18751,7 @@
       <c r="AA53" s="93"/>
       <c r="AB53" s="101"/>
     </row>
-    <row r="54" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <v>253</v>
       </c>
@@ -18804,7 +18807,7 @@
       <c r="AA54" s="93"/>
       <c r="AB54" s="101"/>
     </row>
-    <row r="55" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="55" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <v>254</v>
       </c>
@@ -18860,7 +18863,7 @@
       <c r="AA55" s="93"/>
       <c r="AB55" s="101"/>
     </row>
-    <row r="56" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="56" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <v>255</v>
       </c>
@@ -18916,7 +18919,7 @@
       <c r="AA56" s="93"/>
       <c r="AB56" s="101"/>
     </row>
-    <row r="57" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="57" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>256</v>
       </c>
@@ -18972,7 +18975,7 @@
       <c r="AA57" s="93"/>
       <c r="AB57" s="101"/>
     </row>
-    <row r="58" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="58" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>257</v>
       </c>
@@ -19028,7 +19031,7 @@
       <c r="AA58" s="93"/>
       <c r="AB58" s="101"/>
     </row>
-    <row r="59" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="59" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <v>258</v>
       </c>
@@ -19096,7 +19099,7 @@
       <c r="AA59" s="93"/>
       <c r="AB59" s="101"/>
     </row>
-    <row r="60" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="60" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <v>259</v>
       </c>
@@ -19166,7 +19169,7 @@
       <c r="AA60" s="93"/>
       <c r="AB60" s="101"/>
     </row>
-    <row r="61" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="61" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <v>260</v>
       </c>
@@ -19234,7 +19237,7 @@
       <c r="AA61" s="93"/>
       <c r="AB61" s="101"/>
     </row>
-    <row r="62" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="62" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <v>261</v>
       </c>
@@ -19300,7 +19303,7 @@
       <c r="AA62" s="93"/>
       <c r="AB62" s="101"/>
     </row>
-    <row r="63" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="63" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <v>262</v>
       </c>
@@ -19366,7 +19369,7 @@
       <c r="AA63" s="93"/>
       <c r="AB63" s="101"/>
     </row>
-    <row r="64" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="64" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <v>263</v>
       </c>
@@ -19436,7 +19439,7 @@
       <c r="AA64" s="93"/>
       <c r="AB64" s="101"/>
     </row>
-    <row r="65" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="65" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <v>264</v>
       </c>
@@ -19504,7 +19507,7 @@
       <c r="AA65" s="93"/>
       <c r="AB65" s="101"/>
     </row>
-    <row r="66" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="66" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <v>265</v>
       </c>
@@ -19572,7 +19575,7 @@
       <c r="AA66" s="93"/>
       <c r="AB66" s="101"/>
     </row>
-    <row r="67" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="67" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <v>266</v>
       </c>
@@ -19632,7 +19635,7 @@
       <c r="AA67" s="93"/>
       <c r="AB67" s="101"/>
     </row>
-    <row r="68" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="68" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <v>267</v>
       </c>
@@ -19696,7 +19699,7 @@
       <c r="AA68" s="93"/>
       <c r="AB68" s="101"/>
     </row>
-    <row r="69" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="69" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <v>268</v>
       </c>
@@ -19764,7 +19767,7 @@
       <c r="AA69" s="93"/>
       <c r="AB69" s="101"/>
     </row>
-    <row r="70" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="70" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>269</v>
       </c>
@@ -19830,7 +19833,7 @@
       <c r="AA70" s="93"/>
       <c r="AB70" s="101"/>
     </row>
-    <row r="71" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="71" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>270</v>
       </c>
@@ -19899,7 +19902,7 @@
       <c r="AB71" s="101"/>
       <c r="AC71" s="98"/>
     </row>
-    <row r="72" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="72" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <v>271</v>
       </c>
@@ -19960,7 +19963,7 @@
       <c r="AB72" s="101"/>
       <c r="AC72" s="98"/>
     </row>
-    <row r="73" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="73" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <v>272</v>
       </c>
@@ -20021,7 +20024,7 @@
       <c r="AB73" s="101"/>
       <c r="AC73" s="98"/>
     </row>
-    <row r="74" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="74" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <v>273</v>
       </c>
@@ -20086,7 +20089,7 @@
       <c r="AB74" s="101"/>
       <c r="AC74" s="98"/>
     </row>
-    <row r="75" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="75" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <v>274</v>
       </c>
@@ -20153,7 +20156,7 @@
       <c r="AB75" s="101"/>
       <c r="AC75" s="98"/>
     </row>
-    <row r="76" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="76" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <v>275</v>
       </c>
@@ -20216,7 +20219,7 @@
       <c r="AB76" s="101"/>
       <c r="AC76" s="98"/>
     </row>
-    <row r="77" spans="1:29" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="77" spans="1:29" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <v>276</v>
       </c>
@@ -20280,9 +20283,11 @@
       <c r="AA77" s="93"/>
       <c r="AB77" s="101"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" s="188"/>
-      <c r="B78" s="192"/>
+      <c r="B78" s="192" t="s">
+        <v>736</v>
+      </c>
       <c r="C78" s="193"/>
       <c r="D78" s="194"/>
       <c r="E78" s="184"/>
@@ -20303,7 +20308,7 @@
       <c r="T78" s="262"/>
       <c r="U78" s="189"/>
     </row>
-    <row r="79" spans="1:29" s="33" customFormat="1" ht="15.6">
+    <row r="79" spans="1:29" s="33" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="39"/>
       <c r="B79" s="172" t="s">
         <v>173</v>
@@ -20338,7 +20343,7 @@
       <c r="AB79" s="101"/>
       <c r="AC79" s="98"/>
     </row>
-    <row r="80" spans="1:29" s="33" customFormat="1" ht="15.6">
+    <row r="80" spans="1:29" s="33" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="140"/>
       <c r="B80" s="172" t="s">
         <v>174</v>
@@ -20382,7 +20387,7 @@
       <c r="AB80" s="101"/>
       <c r="AC80" s="98"/>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="25"/>
       <c r="C81" s="60"/>
       <c r="D81" s="61"/>
@@ -20435,37 +20440,37 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="62" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="47" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="20.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="79.42578125" style="102" customWidth="1"/>
-    <col min="24" max="25" width="13.85546875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" style="96" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="102" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="15.7265625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="47" customWidth="1"/>
+    <col min="6" max="9" width="15.7265625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20.7265625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="79.453125" style="102" customWidth="1"/>
+    <col min="24" max="25" width="13.81640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="65.26953125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="25.7265625" style="96" customWidth="1"/>
+    <col min="28" max="28" width="25.7265625" style="102" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="44"/>
       <c r="C1" s="276" t="s">
@@ -20495,7 +20500,7 @@
       <c r="AA1" s="91"/>
       <c r="AB1" s="99"/>
     </row>
-    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="277" t="s">
         <v>1</v>
@@ -20532,7 +20537,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="146" t="s">
         <v>5</v>
@@ -20598,7 +20603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>300</v>
       </c>
@@ -20654,7 +20659,7 @@
       </c>
       <c r="AB4" s="100"/>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>301</v>
       </c>
@@ -20710,7 +20715,7 @@
       </c>
       <c r="AB5" s="100"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>302</v>
       </c>
@@ -20763,7 +20768,7 @@
       </c>
       <c r="AB6" s="100"/>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>303</v>
       </c>
@@ -20814,7 +20819,7 @@
       <c r="AA7" s="95"/>
       <c r="AB7" s="100"/>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>304</v>
       </c>
@@ -20865,7 +20870,7 @@
       <c r="AA8" s="95"/>
       <c r="AB8" s="100"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>305</v>
       </c>
@@ -20921,7 +20926,7 @@
       </c>
       <c r="AB9" s="100"/>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>306</v>
       </c>
@@ -20973,7 +20978,7 @@
       <c r="AA10" s="95"/>
       <c r="AB10" s="100"/>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>307</v>
       </c>
@@ -21029,7 +21034,7 @@
       </c>
       <c r="AB11" s="100"/>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>308</v>
       </c>
@@ -21082,7 +21087,7 @@
       </c>
       <c r="AB12" s="100"/>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>309</v>
       </c>
@@ -21135,7 +21140,7 @@
       </c>
       <c r="AB13" s="100"/>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>310</v>
       </c>
@@ -21186,7 +21191,7 @@
       <c r="AA14" s="93"/>
       <c r="AB14" s="100"/>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>311</v>
       </c>
@@ -21237,7 +21242,7 @@
       <c r="AA15" s="93"/>
       <c r="AB15" s="100"/>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>312</v>
       </c>
@@ -21288,7 +21293,7 @@
       <c r="AA16" s="93"/>
       <c r="AB16" s="100"/>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>313</v>
       </c>
@@ -21339,7 +21344,7 @@
       <c r="AA17" s="93"/>
       <c r="AB17" s="100"/>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>314</v>
       </c>
@@ -21390,7 +21395,7 @@
       <c r="AA18" s="93"/>
       <c r="AB18" s="100"/>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>315</v>
       </c>
@@ -21441,7 +21446,7 @@
       <c r="AA19" s="93"/>
       <c r="AB19" s="100"/>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>316</v>
       </c>
@@ -21492,7 +21497,7 @@
       <c r="AA20" s="93"/>
       <c r="AB20" s="100"/>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>317</v>
       </c>
@@ -21543,7 +21548,7 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="100"/>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>318</v>
       </c>
@@ -21594,7 +21599,7 @@
       <c r="AA22" s="93"/>
       <c r="AB22" s="100"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>319</v>
       </c>
@@ -21645,7 +21650,7 @@
       <c r="AA23" s="93"/>
       <c r="AB23" s="100"/>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>320</v>
       </c>
@@ -21698,7 +21703,7 @@
       <c r="AA24" s="93"/>
       <c r="AB24" s="100"/>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>321</v>
       </c>
@@ -21749,7 +21754,7 @@
       <c r="AA25" s="93"/>
       <c r="AB25" s="100"/>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>322</v>
       </c>
@@ -21800,7 +21805,7 @@
       <c r="AA26" s="93"/>
       <c r="AB26" s="100"/>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>323</v>
       </c>
@@ -21851,7 +21856,7 @@
       <c r="AA27" s="93"/>
       <c r="AB27" s="100"/>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>324</v>
       </c>
@@ -21902,7 +21907,7 @@
       <c r="AA28" s="93"/>
       <c r="AB28" s="100"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>325</v>
       </c>
@@ -21953,7 +21958,7 @@
       <c r="AA29" s="93"/>
       <c r="AB29" s="100"/>
     </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>326</v>
       </c>
@@ -22004,7 +22009,7 @@
       <c r="AA30" s="93"/>
       <c r="AB30" s="100"/>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="31" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>327</v>
       </c>
@@ -22055,7 +22060,7 @@
       <c r="AA31" s="93"/>
       <c r="AB31" s="100"/>
     </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="32" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>328</v>
       </c>
@@ -22106,7 +22111,7 @@
       <c r="AA32" s="93"/>
       <c r="AB32" s="100"/>
     </row>
-    <row r="33" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="33" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>329</v>
       </c>
@@ -22155,7 +22160,7 @@
       <c r="AA33" s="93"/>
       <c r="AB33" s="100"/>
     </row>
-    <row r="34" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>330</v>
       </c>
@@ -22206,7 +22211,7 @@
       <c r="AA34" s="93"/>
       <c r="AB34" s="100"/>
     </row>
-    <row r="35" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>331</v>
       </c>
@@ -22257,7 +22262,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="100"/>
     </row>
-    <row r="36" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>332</v>
       </c>
@@ -22308,7 +22313,7 @@
       <c r="AA36" s="93"/>
       <c r="AB36" s="100"/>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>333</v>
       </c>
@@ -22359,7 +22364,7 @@
       <c r="AA37" s="93"/>
       <c r="AB37" s="100"/>
     </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>334</v>
       </c>
@@ -22410,7 +22415,7 @@
       <c r="AA38" s="93"/>
       <c r="AB38" s="100"/>
     </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>335</v>
       </c>
@@ -22461,7 +22466,7 @@
       <c r="AA39" s="93"/>
       <c r="AB39" s="100"/>
     </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="40" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>336</v>
       </c>
@@ -22512,7 +22517,7 @@
       <c r="AA40" s="93"/>
       <c r="AB40" s="100"/>
     </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>337</v>
       </c>
@@ -22563,7 +22568,7 @@
       <c r="AA41" s="93"/>
       <c r="AB41" s="100"/>
     </row>
-    <row r="42" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="42" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>338</v>
       </c>
@@ -22614,7 +22619,7 @@
       <c r="AA42" s="93"/>
       <c r="AB42" s="100"/>
     </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="43" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>339</v>
       </c>
@@ -22665,7 +22670,7 @@
       <c r="AA43" s="93"/>
       <c r="AB43" s="100"/>
     </row>
-    <row r="44" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>340</v>
       </c>
@@ -22716,7 +22721,7 @@
       <c r="AA44" s="93"/>
       <c r="AB44" s="100"/>
     </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>341</v>
       </c>
@@ -22767,7 +22772,7 @@
       <c r="AA45" s="93"/>
       <c r="AB45" s="100"/>
     </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="46" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>342</v>
       </c>
@@ -22818,7 +22823,7 @@
       <c r="AA46" s="93"/>
       <c r="AB46" s="100"/>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>343</v>
       </c>
@@ -22869,7 +22874,7 @@
       <c r="AA47" s="93"/>
       <c r="AB47" s="100"/>
     </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="48" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>344</v>
       </c>
@@ -22920,7 +22925,7 @@
       <c r="AA48" s="93"/>
       <c r="AB48" s="100"/>
     </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="49" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>345</v>
       </c>
@@ -22971,7 +22976,7 @@
       <c r="AA49" s="93"/>
       <c r="AB49" s="100"/>
     </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="50" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>346</v>
       </c>
@@ -23022,7 +23027,7 @@
       <c r="AA50" s="93"/>
       <c r="AB50" s="100"/>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>347</v>
       </c>
@@ -23073,7 +23078,7 @@
       <c r="AA51" s="93"/>
       <c r="AB51" s="100"/>
     </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>348</v>
       </c>
@@ -23124,7 +23129,7 @@
       <c r="AA52" s="93"/>
       <c r="AB52" s="100"/>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <v>349</v>
       </c>
@@ -23175,7 +23180,7 @@
       <c r="AA53" s="93"/>
       <c r="AB53" s="100"/>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <v>350</v>
       </c>
@@ -23226,7 +23231,7 @@
       <c r="AA54" s="93"/>
       <c r="AB54" s="100"/>
     </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <v>351</v>
       </c>
@@ -23277,7 +23282,7 @@
       <c r="AA55" s="93"/>
       <c r="AB55" s="100"/>
     </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="56" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <v>352</v>
       </c>
@@ -23328,7 +23333,7 @@
       <c r="AA56" s="93"/>
       <c r="AB56" s="100"/>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>353</v>
       </c>
@@ -23380,7 +23385,7 @@
       <c r="AA57" s="93"/>
       <c r="AB57" s="100"/>
     </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>354</v>
       </c>
@@ -23429,7 +23434,7 @@
       <c r="AA58" s="93"/>
       <c r="AB58" s="100"/>
     </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <v>355</v>
       </c>
@@ -23478,7 +23483,7 @@
       <c r="AA59" s="93"/>
       <c r="AB59" s="100"/>
     </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <v>356</v>
       </c>
@@ -23527,7 +23532,7 @@
       <c r="AA60" s="93"/>
       <c r="AB60" s="100"/>
     </row>
-    <row r="61" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="61" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <v>357</v>
       </c>
@@ -23576,7 +23581,7 @@
       <c r="AA61" s="93"/>
       <c r="AB61" s="100"/>
     </row>
-    <row r="62" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="62" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <v>358</v>
       </c>
@@ -23625,7 +23630,7 @@
       <c r="AA62" s="93"/>
       <c r="AB62" s="100"/>
     </row>
-    <row r="63" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="63" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <v>359</v>
       </c>
@@ -23674,7 +23679,7 @@
       <c r="AA63" s="93"/>
       <c r="AB63" s="100"/>
     </row>
-    <row r="64" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="64" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <v>360</v>
       </c>
@@ -23723,7 +23728,7 @@
       <c r="AA64" s="93"/>
       <c r="AB64" s="100"/>
     </row>
-    <row r="65" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <v>361</v>
       </c>
@@ -23774,7 +23779,7 @@
       <c r="AA65" s="93"/>
       <c r="AB65" s="100"/>
     </row>
-    <row r="66" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <v>362</v>
       </c>
@@ -23825,7 +23830,7 @@
       <c r="AA66" s="93"/>
       <c r="AB66" s="100"/>
     </row>
-    <row r="67" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="67" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <v>363</v>
       </c>
@@ -23876,7 +23881,7 @@
       <c r="AA67" s="93"/>
       <c r="AB67" s="100"/>
     </row>
-    <row r="68" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="68" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <v>364</v>
       </c>
@@ -23927,7 +23932,7 @@
       <c r="AA68" s="93"/>
       <c r="AB68" s="100"/>
     </row>
-    <row r="69" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="69" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <v>365</v>
       </c>
@@ -23978,7 +23983,7 @@
       <c r="AA69" s="93"/>
       <c r="AB69" s="100"/>
     </row>
-    <row r="70" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="70" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>366</v>
       </c>
@@ -24029,7 +24034,7 @@
       <c r="AA70" s="93"/>
       <c r="AB70" s="100"/>
     </row>
-    <row r="71" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="71" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>367</v>
       </c>
@@ -24080,7 +24085,7 @@
       <c r="AA71" s="93"/>
       <c r="AB71" s="100"/>
     </row>
-    <row r="72" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="72" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <v>368</v>
       </c>
@@ -24131,7 +24136,7 @@
       <c r="AA72" s="93"/>
       <c r="AB72" s="100"/>
     </row>
-    <row r="73" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="73" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <v>369</v>
       </c>
@@ -24182,7 +24187,7 @@
       <c r="AA73" s="93"/>
       <c r="AB73" s="100"/>
     </row>
-    <row r="74" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="74" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <v>370</v>
       </c>
@@ -24233,7 +24238,7 @@
       <c r="AA74" s="93"/>
       <c r="AB74" s="100"/>
     </row>
-    <row r="75" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="75" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <v>371</v>
       </c>
@@ -24282,7 +24287,7 @@
       <c r="AA75" s="93"/>
       <c r="AB75" s="100"/>
     </row>
-    <row r="76" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="76" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <v>372</v>
       </c>
@@ -24331,7 +24336,7 @@
       <c r="AA76" s="93"/>
       <c r="AB76" s="100"/>
     </row>
-    <row r="77" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="77" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <v>373</v>
       </c>
@@ -24380,7 +24385,7 @@
       <c r="AA77" s="93"/>
       <c r="AB77" s="100"/>
     </row>
-    <row r="78" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="78" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <v>374</v>
       </c>
@@ -24429,7 +24434,7 @@
       <c r="AA78" s="93"/>
       <c r="AB78" s="100"/>
     </row>
-    <row r="79" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="79" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <v>375</v>
       </c>
@@ -24478,7 +24483,7 @@
       <c r="AA79" s="93"/>
       <c r="AB79" s="100"/>
     </row>
-    <row r="80" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="80" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <v>376</v>
       </c>
@@ -24527,7 +24532,7 @@
       <c r="AA80" s="93"/>
       <c r="AB80" s="100"/>
     </row>
-    <row r="81" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="81" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <v>377</v>
       </c>
@@ -24576,7 +24581,7 @@
       <c r="AA81" s="93"/>
       <c r="AB81" s="100"/>
     </row>
-    <row r="82" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="82" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <v>378</v>
       </c>
@@ -24625,7 +24630,7 @@
       <c r="AA82" s="93"/>
       <c r="AB82" s="100"/>
     </row>
-    <row r="83" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="83" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <v>379</v>
       </c>
@@ -24674,7 +24679,7 @@
       <c r="AA83" s="93"/>
       <c r="AB83" s="100"/>
     </row>
-    <row r="84" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="84" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <v>380</v>
       </c>
@@ -24723,7 +24728,7 @@
       <c r="AA84" s="93"/>
       <c r="AB84" s="100"/>
     </row>
-    <row r="85" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="85" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <v>381</v>
       </c>
@@ -24772,7 +24777,7 @@
       <c r="AA85" s="93"/>
       <c r="AB85" s="100"/>
     </row>
-    <row r="86" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="86" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <v>382</v>
       </c>
@@ -24821,7 +24826,7 @@
       <c r="AA86" s="93"/>
       <c r="AB86" s="100"/>
     </row>
-    <row r="87" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="87" spans="1:29" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <v>383</v>
       </c>
@@ -24870,7 +24875,7 @@
       <c r="AA87" s="93"/>
       <c r="AB87" s="100"/>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B88" s="25"/>
       <c r="C88" s="60"/>
       <c r="D88" s="61"/>
@@ -24892,7 +24897,7 @@
       <c r="T88" s="18"/>
       <c r="X88" s="19"/>
     </row>
-    <row r="89" spans="1:29" s="33" customFormat="1" ht="15.6">
+    <row r="89" spans="1:29" s="33" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B89" s="35" t="s">
         <v>173</v>
       </c>
@@ -24924,7 +24929,7 @@
       <c r="AB89" s="101"/>
       <c r="AC89" s="98"/>
     </row>
-    <row r="90" spans="1:29" s="33" customFormat="1" ht="15.95" thickBot="1">
+    <row r="90" spans="1:29" s="33" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="41"/>
       <c r="B90" s="36" t="s">
         <v>174</v>
@@ -24967,19 +24972,19 @@
       <c r="AB90" s="101"/>
       <c r="AC90" s="98"/>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
       <c r="X95" s="19"/>
     </row>
   </sheetData>
@@ -25013,34 +25018,34 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="84" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="107" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="25" width="13.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="96" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="107" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="63" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.26953125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="13.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="65.26953125" style="4" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" style="96" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="44"/>
       <c r="C1" s="276" t="s">
@@ -25068,7 +25073,7 @@
       <c r="AA1" s="91"/>
       <c r="AB1" s="97"/>
     </row>
-    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:28" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="277" t="s">
         <v>1</v>
@@ -25103,7 +25108,7 @@
       <c r="AA2" s="92"/>
       <c r="AB2" s="30"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>453</v>
       </c>
@@ -25167,7 +25172,7 @@
       <c r="AA3" s="93"/>
       <c r="AB3" s="16"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="151"/>
       <c r="C4" s="152"/>
@@ -25199,7 +25204,7 @@
       </c>
       <c r="AB4" s="16"/>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="151"/>
       <c r="C5" s="152"/>
@@ -25231,7 +25236,7 @@
       </c>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="151"/>
       <c r="C6" s="152"/>
@@ -25258,7 +25263,7 @@
       </c>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="151"/>
       <c r="C7" s="152"/>
@@ -25290,7 +25295,7 @@
       </c>
       <c r="AB7" s="16"/>
     </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="151"/>
       <c r="C8" s="152"/>
@@ -25322,7 +25327,7 @@
       </c>
       <c r="AB8" s="16"/>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="151"/>
       <c r="C9" s="152"/>
@@ -25349,7 +25354,7 @@
       </c>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="151"/>
       <c r="C10" s="152"/>
@@ -25376,7 +25381,7 @@
       </c>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="151"/>
       <c r="C11" s="152"/>
@@ -25401,7 +25406,7 @@
       <c r="AA11" s="93"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="151"/>
       <c r="C12" s="152"/>
@@ -25426,7 +25431,7 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="16"/>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="151"/>
       <c r="C13" s="152"/>
@@ -25451,7 +25456,7 @@
       <c r="AA13" s="93"/>
       <c r="AB13" s="16"/>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="151"/>
       <c r="C14" s="152"/>
@@ -25476,7 +25481,7 @@
       <c r="AA14" s="93"/>
       <c r="AB14" s="16"/>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="151"/>
       <c r="C15" s="152"/>
@@ -25501,7 +25506,7 @@
       <c r="AA15" s="93"/>
       <c r="AB15" s="16"/>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="151"/>
       <c r="C16" s="152"/>
@@ -25526,7 +25531,7 @@
       <c r="AA16" s="93"/>
       <c r="AB16" s="16"/>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="151"/>
       <c r="C17" s="152"/>
@@ -25551,7 +25556,7 @@
       <c r="AA17" s="93"/>
       <c r="AB17" s="16"/>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="151"/>
       <c r="C18" s="152"/>
@@ -25576,7 +25581,7 @@
       <c r="AA18" s="93"/>
       <c r="AB18" s="16"/>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="151"/>
       <c r="C19" s="152"/>
@@ -25601,7 +25606,7 @@
       <c r="AA19" s="93"/>
       <c r="AB19" s="16"/>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="151"/>
       <c r="C20" s="152"/>
@@ -25626,7 +25631,7 @@
       <c r="AA20" s="93"/>
       <c r="AB20" s="16"/>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="151"/>
       <c r="C21" s="165"/>
@@ -25651,7 +25656,7 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="151"/>
       <c r="C22" s="152"/>
@@ -25676,7 +25681,7 @@
       <c r="AA22" s="93"/>
       <c r="AB22" s="16"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="151"/>
       <c r="C23" s="152"/>
@@ -25701,7 +25706,7 @@
       <c r="AA23" s="93"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="151"/>
       <c r="C24" s="152"/>
@@ -25726,7 +25731,7 @@
       <c r="AA24" s="93"/>
       <c r="AB24" s="16"/>
     </row>
-    <row r="25" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="151"/>
       <c r="C25" s="152"/>
@@ -25752,7 +25757,7 @@
       <c r="AA25" s="93"/>
       <c r="AB25" s="98"/>
     </row>
-    <row r="26" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="151"/>
       <c r="C26" s="152"/>
@@ -25778,7 +25783,7 @@
       <c r="AA26" s="93"/>
       <c r="AB26" s="98"/>
     </row>
-    <row r="27" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="151"/>
       <c r="C27" s="152"/>
@@ -25804,7 +25809,7 @@
       <c r="AA27" s="93"/>
       <c r="AB27" s="98"/>
     </row>
-    <row r="28" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="151"/>
       <c r="C28" s="152"/>
@@ -25830,7 +25835,7 @@
       <c r="AA28" s="93"/>
       <c r="AB28" s="98"/>
     </row>
-    <row r="29" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="151"/>
       <c r="C29" s="152"/>
@@ -25856,7 +25861,7 @@
       <c r="AA29" s="93"/>
       <c r="AB29" s="98"/>
     </row>
-    <row r="30" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="151"/>
       <c r="C30" s="152"/>
@@ -25882,7 +25887,7 @@
       <c r="AA30" s="93"/>
       <c r="AB30" s="98"/>
     </row>
-    <row r="31" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="151"/>
       <c r="C31" s="152"/>
@@ -25910,7 +25915,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="151"/>
       <c r="C32" s="152"/>
@@ -25936,7 +25941,7 @@
       <c r="AA32" s="93"/>
       <c r="AB32" s="98"/>
     </row>
-    <row r="33" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="151"/>
       <c r="C33" s="152"/>
@@ -25962,7 +25967,7 @@
       <c r="AA33" s="93"/>
       <c r="AB33" s="98"/>
     </row>
-    <row r="34" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="151"/>
       <c r="C34" s="152"/>
@@ -25988,7 +25993,7 @@
       <c r="AA34" s="93"/>
       <c r="AB34" s="98"/>
     </row>
-    <row r="35" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="151"/>
       <c r="C35" s="152"/>
@@ -26014,7 +26019,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="98"/>
     </row>
-    <row r="36" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="151"/>
       <c r="C36" s="152"/>
@@ -26040,7 +26045,7 @@
       <c r="AA36" s="93"/>
       <c r="AB36" s="98"/>
     </row>
-    <row r="37" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="37" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="151"/>
       <c r="C37" s="152"/>
@@ -26066,7 +26071,7 @@
       <c r="AA37" s="93"/>
       <c r="AB37" s="98"/>
     </row>
-    <row r="38" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="38" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="151"/>
       <c r="C38" s="152"/>
@@ -26092,7 +26097,7 @@
       <c r="AA38" s="93"/>
       <c r="AB38" s="98"/>
     </row>
-    <row r="39" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="39" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="151"/>
       <c r="C39" s="152"/>
@@ -26118,7 +26123,7 @@
       <c r="AA39" s="93"/>
       <c r="AB39" s="98"/>
     </row>
-    <row r="40" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="40" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="151"/>
       <c r="C40" s="152"/>
@@ -26144,7 +26149,7 @@
       <c r="AA40" s="93"/>
       <c r="AB40" s="98"/>
     </row>
-    <row r="41" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="41" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="151"/>
       <c r="C41" s="152"/>
@@ -26170,7 +26175,7 @@
       <c r="AA41" s="93"/>
       <c r="AB41" s="98"/>
     </row>
-    <row r="42" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="42" spans="1:28" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="151"/>
       <c r="C42" s="152"/>
@@ -26196,7 +26201,7 @@
       <c r="AA42" s="93"/>
       <c r="AB42" s="98"/>
     </row>
-    <row r="43" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="151"/>
       <c r="C43" s="152"/>
@@ -26222,7 +26227,7 @@
       <c r="AA43" s="93"/>
       <c r="AB43" s="98"/>
     </row>
-    <row r="44" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="151"/>
       <c r="C44" s="152"/>
@@ -26248,7 +26253,7 @@
       <c r="AA44" s="93"/>
       <c r="AB44" s="98"/>
     </row>
-    <row r="45" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="151"/>
       <c r="C45" s="152"/>
@@ -26274,7 +26279,7 @@
       <c r="AA45" s="93"/>
       <c r="AB45" s="98"/>
     </row>
-    <row r="46" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="151"/>
       <c r="C46" s="152"/>
@@ -26300,7 +26305,7 @@
       <c r="AA46" s="93"/>
       <c r="AB46" s="98"/>
     </row>
-    <row r="47" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="151"/>
       <c r="C47" s="152"/>
@@ -26326,7 +26331,7 @@
       <c r="AA47" s="93"/>
       <c r="AB47" s="98"/>
     </row>
-    <row r="48" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="151"/>
       <c r="C48" s="152"/>
@@ -26352,7 +26357,7 @@
       <c r="AA48" s="93"/>
       <c r="AB48" s="98"/>
     </row>
-    <row r="49" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="151"/>
       <c r="C49" s="152"/>
@@ -26378,7 +26383,7 @@
       <c r="AA49" s="93"/>
       <c r="AB49" s="98"/>
     </row>
-    <row r="50" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="151"/>
       <c r="C50" s="152"/>
@@ -26404,7 +26409,7 @@
       <c r="AA50" s="93"/>
       <c r="AB50" s="98"/>
     </row>
-    <row r="51" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="151"/>
       <c r="C51" s="152"/>
@@ -26430,7 +26435,7 @@
       <c r="AA51" s="93"/>
       <c r="AB51" s="98"/>
     </row>
-    <row r="52" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="151"/>
       <c r="C52" s="152"/>
@@ -26456,7 +26461,7 @@
       <c r="AA52" s="93"/>
       <c r="AB52" s="98"/>
     </row>
-    <row r="53" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="151"/>
       <c r="C53" s="152"/>
@@ -26482,7 +26487,7 @@
       <c r="AA53" s="93"/>
       <c r="AB53" s="98"/>
     </row>
-    <row r="54" spans="1:28" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="1:28" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="210"/>
       <c r="C54" s="211"/>
       <c r="D54" s="212"/>
@@ -26507,7 +26512,7 @@
       <c r="AA54" s="93"/>
       <c r="AB54" s="98"/>
     </row>
-    <row r="55" spans="1:28" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="55" spans="1:28" s="33" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="41"/>
       <c r="B55" s="36" t="s">
         <v>174</v>
@@ -26547,7 +26552,7 @@
       <c r="AA55" s="93"/>
       <c r="AB55" s="98"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
       <c r="B56" s="25"/>
       <c r="C56" s="60"/>
@@ -26569,7 +26574,7 @@
       <c r="T56" s="18"/>
       <c r="AB56" s="19"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB57" s="19"/>
     </row>
   </sheetData>
@@ -26604,27 +26609,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="25" width="13.85546875" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" customWidth="1"/>
-    <col min="27" max="28" width="25.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" customWidth="1"/>
+    <col min="14" max="14" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="20.7265625" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" customWidth="1"/>
+    <col min="23" max="25" width="13.81640625" customWidth="1"/>
+    <col min="26" max="26" width="65.26953125" customWidth="1"/>
+    <col min="27" max="28" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1"/>
-    <row r="2" spans="1:7" ht="52.5" customHeight="1">
+    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="147" t="s">
         <v>7</v>
       </c>
@@ -26644,7 +26649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1">
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>454</v>
       </c>
@@ -26667,7 +26672,7 @@
         <v>2.9888000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1">
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>455</v>
       </c>
@@ -26690,7 +26695,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1">
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>456</v>
       </c>
@@ -26713,7 +26718,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1">
+    <row r="6" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65" t="s">
         <v>457</v>
       </c>
@@ -26736,7 +26741,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1">
+    <row r="7" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
         <v>174</v>
       </c>
@@ -26759,7 +26764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45.75" customHeight="1">
+    <row r="8" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="202" t="e">
         <f>B7/B11</f>
         <v>#REF!</v>
@@ -26779,7 +26784,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1">
+    <row r="9" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="67" t="s">
         <v>458</v>
       </c>
@@ -26799,7 +26804,7 @@
         <v>21.46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1">
+    <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
         <v>459</v>
       </c>
@@ -26818,7 +26823,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1">
+    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="203">
         <f>SUM(B9:B10)</f>
@@ -26839,58 +26844,58 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1"/>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1"/>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1"/>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1"/>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1"/>
-    <row r="17" ht="24.95" customHeight="1"/>
-    <row r="18" ht="24.95" customHeight="1"/>
-    <row r="19" ht="24.95" customHeight="1"/>
-    <row r="20" ht="24.95" customHeight="1"/>
-    <row r="21" ht="24.95" customHeight="1"/>
-    <row r="22" ht="24.95" customHeight="1"/>
-    <row r="23" ht="24.6" customHeight="1"/>
-    <row r="24" ht="24.95" customHeight="1"/>
-    <row r="25" ht="24.95" customHeight="1"/>
-    <row r="26" ht="24.95" customHeight="1"/>
-    <row r="27" ht="24.95" customHeight="1"/>
-    <row r="28" ht="24.95" customHeight="1"/>
-    <row r="29" ht="24.95" customHeight="1"/>
-    <row r="30" ht="24.95" customHeight="1"/>
-    <row r="31" ht="24.95" customHeight="1"/>
-    <row r="32" ht="24.95" customHeight="1"/>
-    <row r="33" ht="24.95" customHeight="1"/>
-    <row r="34" ht="24.95" customHeight="1"/>
-    <row r="35" ht="24.95" customHeight="1"/>
-    <row r="36" ht="24.95" customHeight="1"/>
-    <row r="37" ht="24.95" customHeight="1"/>
-    <row r="38" ht="24.95" customHeight="1"/>
-    <row r="39" ht="24.95" customHeight="1"/>
-    <row r="40" ht="24.95" customHeight="1"/>
-    <row r="41" ht="24.95" customHeight="1"/>
-    <row r="42" ht="24.95" customHeight="1"/>
-    <row r="43" ht="24.95" customHeight="1"/>
-    <row r="44" ht="24.95" customHeight="1"/>
-    <row r="45" ht="24.95" customHeight="1"/>
-    <row r="46" ht="24.95" customHeight="1"/>
-    <row r="47" ht="24.95" customHeight="1"/>
-    <row r="48" ht="24.95" customHeight="1"/>
-    <row r="49" ht="24.95" customHeight="1"/>
-    <row r="50" ht="24.95" customHeight="1"/>
-    <row r="51" ht="24.95" customHeight="1"/>
-    <row r="52" ht="24.95" customHeight="1"/>
-    <row r="53" ht="24.95" customHeight="1"/>
-    <row r="54" ht="24.95" customHeight="1"/>
-    <row r="55" ht="33.6" customHeight="1"/>
-    <row r="56" ht="33.6" customHeight="1"/>
-    <row r="57" ht="33.6" customHeight="1"/>
-    <row r="58" ht="33.6" customHeight="1"/>
-    <row r="59" ht="33.6" customHeight="1"/>
-    <row r="60" ht="33.6" customHeight="1"/>
-    <row r="61" ht="24.95" customHeight="1"/>
-    <row r="62" ht="24.95" customHeight="1"/>
-    <row r="63" ht="24.95" customHeight="1"/>
+    <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="24.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26909,30 +26914,30 @@
       <selection pane="bottomLeft" activeCell="J204" sqref="J204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="72" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="11" width="18.85546875" style="78" customWidth="1"/>
-    <col min="12" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" customWidth="1"/>
-    <col min="16384" max="16384" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="11" width="18.81640625" style="78" customWidth="1"/>
+    <col min="12" max="14" width="8.81640625" customWidth="1"/>
+    <col min="15" max="15" width="21.26953125" customWidth="1"/>
+    <col min="17" max="17" width="26.26953125" customWidth="1"/>
+    <col min="16384" max="16384" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="77">
         <v>45187</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="82.5" customHeight="1">
+    <row r="3" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="71" t="s">
         <v>460</v>
       </c>
@@ -26951,7 +26956,7 @@
       <c r="J3" s="285"/>
       <c r="K3" s="120"/>
     </row>
-    <row r="4" spans="1:17" ht="48.75" customHeight="1">
+    <row r="4" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="72" t="s">
         <v>462</v>
       </c>
@@ -27016,7 +27021,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
         <v>470</v>
       </c>
@@ -27063,7 +27068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="82" t="s">
         <v>470</v>
       </c>
@@ -27111,7 +27116,7 @@
         <v>Nadira Mustapha</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="82" t="s">
         <v>470</v>
       </c>
@@ -27159,7 +27164,7 @@
         <v xml:space="preserve">Nadira Mustapha </v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="82" t="s">
         <v>470</v>
       </c>
@@ -27207,7 +27212,7 @@
         <v xml:space="preserve">Shayeekh Saleheen </v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="82" t="s">
         <v>470</v>
       </c>
@@ -27255,7 +27260,7 @@
         <v xml:space="preserve">David Garvey </v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="82" t="s">
         <v>470</v>
       </c>
@@ -27303,7 +27308,7 @@
         <v xml:space="preserve">David Garvey </v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
         <v>470</v>
       </c>
@@ -27351,7 +27356,7 @@
         <v xml:space="preserve">Amrit Kaur Ladhar </v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="82" t="s">
         <v>470</v>
       </c>
@@ -27399,7 +27404,7 @@
         <v xml:space="preserve">Farideh Saffari </v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
         <v>470</v>
       </c>
@@ -27447,7 +27452,7 @@
         <v xml:space="preserve">Hanna Samavi </v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="82" t="s">
         <v>470</v>
       </c>
@@ -27498,7 +27503,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="82" t="s">
         <v>470</v>
       </c>
@@ -27546,7 +27551,7 @@
         <v xml:space="preserve">Jasmeet Kaur </v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="82" t="s">
         <v>470</v>
       </c>
@@ -27594,7 +27599,7 @@
         <v xml:space="preserve">Amber Katz </v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="82" t="s">
         <v>470</v>
       </c>
@@ -27642,7 +27647,7 @@
         <v xml:space="preserve">Amber Katz </v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="82" t="s">
         <v>470</v>
       </c>
@@ -27690,7 +27695,7 @@
         <v>Chiazor Chukwulobe</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="82" t="s">
         <v>470</v>
       </c>
@@ -27738,7 +27743,7 @@
         <v>Chiazor Chukwulobe</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
         <v>470</v>
       </c>
@@ -27786,7 +27791,7 @@
         <v xml:space="preserve">Kyle Shore </v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="82" t="s">
         <v>470</v>
       </c>
@@ -27834,7 +27839,7 @@
         <v xml:space="preserve">Ryan Friesen </v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="82" t="s">
         <v>470</v>
       </c>
@@ -27882,7 +27887,7 @@
         <v xml:space="preserve">Viktoriya Lebova </v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="80"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -27892,7 +27897,7 @@
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <f>'Spring 2023'!A4</f>
         <v>1</v>
@@ -27937,7 +27942,7 @@
         <v xml:space="preserve">Silke Knieling </v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <f>'Spring 2023'!A5</f>
         <v>2</v>
@@ -27982,7 +27987,7 @@
         <v xml:space="preserve">Keri-Lee Conly </v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <f>'Spring 2023'!A6</f>
         <v>3</v>
@@ -28027,7 +28032,7 @@
         <v xml:space="preserve">Simon Haywood </v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <f>'Spring 2023'!A7</f>
         <v>4</v>
@@ -28072,7 +28077,7 @@
         <v>Nadiya Topalo</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <f>'Spring 2023'!A8</f>
         <v>5</v>
@@ -28117,7 +28122,7 @@
         <v>Sandra Schonwetter</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <f>'Spring 2023'!A9</f>
         <v>6</v>
@@ -28162,7 +28167,7 @@
         <v>Tracey J Curell</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <f>'Spring 2023'!A10</f>
         <v>7</v>
@@ -28207,7 +28212,7 @@
         <v>Kim Leslie</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <f>'Spring 2023'!A11</f>
         <v>8</v>
@@ -28252,7 +28257,7 @@
         <v>Heather Arklie</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <f>'Spring 2023'!A12</f>
         <v>9</v>
@@ -28297,7 +28302,7 @@
         <v>Colette Thiessen</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <f>'Spring 2023'!A13</f>
         <v>10</v>
@@ -28342,7 +28347,7 @@
         <v>Jesse Friesen</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <f>'Spring 2023'!A14</f>
         <v>11</v>
@@ -28388,7 +28393,7 @@
         <v>Hanim Koken</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="74">
         <f>'Spring 2023'!A15</f>
         <v>12</v>
@@ -28434,7 +28439,7 @@
         <v>Kyle Shore</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="74">
         <f>'Spring 2023'!A16</f>
         <v>13</v>
@@ -28479,7 +28484,7 @@
         <v>Luciana Wiranto</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="74">
         <f>'Spring 2023'!A17</f>
         <v>14</v>
@@ -28525,7 +28530,7 @@
         <v>Albina Bushueva</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="74">
         <f>'Spring 2023'!A18</f>
         <v>15</v>
@@ -28571,7 +28576,7 @@
         <v>Nina Singh</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="74">
         <f>'Spring 2023'!A19</f>
         <v>16</v>
@@ -28617,7 +28622,7 @@
         <v>Farideh Saffari</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="74">
         <f>'Spring 2023'!A20</f>
         <v>17</v>
@@ -28663,7 +28668,7 @@
         <v xml:space="preserve">Suzanne Wabick </v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="74">
         <f>'Spring 2023'!A21</f>
         <v>18</v>
@@ -28709,7 +28714,7 @@
         <v>Amrit Kaur Ladhar</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="74">
         <f>'Spring 2023'!A22</f>
         <v>19</v>
@@ -28755,7 +28760,7 @@
         <v xml:space="preserve">Selena Halilovic </v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="74">
         <f>'Spring 2023'!A23</f>
         <v>20</v>
@@ -28801,7 +28806,7 @@
         <v>Viktoriya Lebova</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="74">
         <f>'Spring 2023'!A24</f>
         <v>21</v>
@@ -28847,7 +28852,7 @@
         <v>Jasmeet Kaur</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="74">
         <f>'Spring 2023'!A25</f>
         <v>22</v>
@@ -28893,7 +28898,7 @@
         <v>Laura Collins</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="74">
         <f>'Spring 2023'!A26</f>
         <v>23</v>
@@ -28939,7 +28944,7 @@
         <v>Darlene Asselstine</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="74">
         <f>'Spring 2023'!A27</f>
         <v>24</v>
@@ -28985,7 +28990,7 @@
 Natalia Vasilchuk (PM)</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="74">
         <f>'Spring 2023'!A28</f>
         <v>25</v>
@@ -29030,7 +29035,7 @@
         <v xml:space="preserve">Natalia Vasilchuk  </v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="74">
         <f>'Spring 2023'!A29</f>
         <v>26</v>
@@ -29075,7 +29080,7 @@
         <v xml:space="preserve">Crystelle Wiebe </v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="74">
         <f>'Spring 2023'!A30</f>
         <v>27</v>
@@ -29120,7 +29125,7 @@
         <v>Lu Lu Seng Ja</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="74">
         <f>'Spring 2023'!A31</f>
         <v>28</v>
@@ -29165,7 +29170,7 @@
         <v>Morgan Melnychuk</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="74">
         <f>'Spring 2023'!A32</f>
         <v>29</v>
@@ -29210,7 +29215,7 @@
         <v>Yuliya Zalyubovska</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="74">
         <f>'Spring 2023'!A33</f>
         <v>30</v>
@@ -29255,7 +29260,7 @@
         <v>Lucas Neves</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="74">
         <f>'Spring 2023'!A34</f>
         <v>31</v>
@@ -29300,7 +29305,7 @@
         <v>Chris Klassen</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="74">
         <f>'Spring 2023'!A35</f>
         <v>32</v>
@@ -29345,7 +29350,7 @@
         <v>TBD</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="74">
         <f>'Spring 2023'!A36</f>
         <v>33</v>
@@ -29390,7 +29395,7 @@
         <v>Morgan Melnychuk</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="74">
         <f>'Spring 2023'!A37</f>
         <v>34</v>
@@ -29435,7 +29440,7 @@
         <v>Ingrid Porter/Larissa Klymkiw</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="74">
         <f>'Spring 2023'!A38</f>
         <v>35</v>
@@ -29480,7 +29485,7 @@
         <v>Ingrid Porter/Larissa Klymkiw</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="74">
         <f>'Spring 2023'!A39</f>
         <v>36</v>
@@ -29525,7 +29530,7 @@
         <v>Ingrid Porter/Larissa Klymkiw</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="74">
         <f>'Spring 2023'!A40</f>
         <v>37</v>
@@ -29570,7 +29575,7 @@
         <v>Ingrid Porter/Larissa Klymkiw</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="74">
         <f>'Spring 2023'!A41</f>
         <v>38</v>
@@ -29615,7 +29620,7 @@
         <v>Ingrid Porter/Larissa Klymkiw</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="74" t="str">
         <f>'Spring 2023'!A42</f>
         <v>AM8-39</v>
@@ -29660,7 +29665,7 @@
         <v>Didn't run until Aug 28</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="74" t="str">
         <f>'Spring 2023'!A43</f>
         <v>AM8-40</v>
@@ -29705,7 +29710,7 @@
         <v>Amrita Gill</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="74" t="str">
         <f>'Spring 2023'!A44</f>
         <v>AM8-41</v>
@@ -29750,7 +29755,7 @@
         <v>Amrita Gill</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="74" t="str">
         <f>'Spring 2023'!A45</f>
         <v>AM8-42</v>
@@ -29795,7 +29800,7 @@
         <v>Clayton Lorraine</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="74" t="str">
         <f>'Spring 2023'!A46</f>
         <v>AM8-43</v>
@@ -29840,7 +29845,7 @@
         <v>Clayton Lorraine</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="74" t="str">
         <f>'Spring 2023'!A47</f>
         <v>AM8-44</v>
@@ -29885,7 +29890,7 @@
         <v>Amrita Gill</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="74" t="str">
         <f>'Spring 2023'!A48</f>
         <v>AM8-45</v>
@@ -29930,7 +29935,7 @@
         <v>Amy Armstrong</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="74" t="str">
         <f>'Spring 2023'!A49</f>
         <v>AM8-46</v>
@@ -29975,7 +29980,7 @@
         <v>Amy Armstrong</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="74" t="str">
         <f>'Spring 2023'!A50</f>
         <v>AM8-47</v>
@@ -30016,7 +30021,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="74" t="str">
         <f>'Spring 2023'!A51</f>
         <v>AM8-48</v>
@@ -30057,7 +30062,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="74" t="str">
         <f>'Spring 2023'!A52</f>
         <v>AM8-49</v>
@@ -30098,7 +30103,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="74" t="str">
         <f>'Spring 2023'!A53</f>
         <v>AM8-50</v>
@@ -30139,7 +30144,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="74" t="str">
         <f>'Spring 2023'!A54</f>
         <v>AM8-51</v>
@@ -30181,7 +30186,7 @@
       </c>
       <c r="L74" s="72"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="74" t="str">
         <f>'Spring 2023'!A55</f>
         <v>AM8-52</v>
@@ -30223,7 +30228,7 @@
       </c>
       <c r="L75" s="72"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="74" t="str">
         <f>'Spring 2023'!A56</f>
         <v>AM8-53</v>
@@ -30265,7 +30270,7 @@
       </c>
       <c r="L76" s="72"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="74" t="str">
         <f>'Spring 2023'!A57</f>
         <v>AM8-54</v>
@@ -30307,7 +30312,7 @@
       </c>
       <c r="L77" s="72"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="74" t="str">
         <f>'Spring 2023'!A58</f>
         <v>AM8-55</v>
@@ -30349,7 +30354,7 @@
       </c>
       <c r="L78" s="72"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="74" t="str">
         <f>'Spring 2023'!A59</f>
         <v>AM8-56</v>
@@ -30391,7 +30396,7 @@
       </c>
       <c r="L79" s="72"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B80" s="85"/>
       <c r="C80" s="85"/>
       <c r="D80" s="85"/>
@@ -30403,7 +30408,7 @@
       <c r="J80" s="86"/>
       <c r="K80" s="86"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="75" cm="1">
         <f t="array" ref="A81:I81">'Summer 2023'!A4:I4</f>
         <v>100</v>
@@ -30433,7 +30438,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="75" cm="1">
         <f t="array" ref="A82:I82">'Summer 2023'!A5:I5</f>
         <v>101</v>
@@ -30463,7 +30468,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="75" cm="1">
         <f t="array" ref="A83:I83">'Summer 2023'!A6:I6</f>
         <v>102</v>
@@ -30493,7 +30498,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="75" cm="1">
         <f t="array" ref="A84:I84">'Summer 2023'!A7:I7</f>
         <v>103</v>
@@ -30523,7 +30528,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="75" cm="1">
         <f t="array" ref="A85:I85">'Summer 2023'!A8:I8</f>
         <v>104</v>
@@ -30553,7 +30558,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="75" cm="1">
         <f t="array" ref="A86:I86">'Summer 2023'!A9:I9</f>
         <v>105</v>
@@ -30583,7 +30588,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="75" cm="1">
         <f t="array" ref="A87:I87">'Summer 2023'!A10:I10</f>
         <v>106</v>
@@ -30613,7 +30618,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="75" cm="1">
         <f t="array" ref="A88:I88">'Summer 2023'!A11:I11</f>
         <v>107</v>
@@ -30643,7 +30648,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="75" cm="1">
         <f t="array" ref="A89:I89">'Summer 2023'!A12:I12</f>
         <v>108</v>
@@ -30673,7 +30678,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="75" cm="1">
         <f t="array" ref="A90:I90">'Summer 2023'!A13:I13</f>
         <v>109</v>
@@ -30703,7 +30708,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="75" cm="1">
         <f t="array" ref="A91:I91">'Summer 2023'!A14:I14</f>
         <v>110</v>
@@ -30733,7 +30738,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="75" cm="1">
         <f t="array" ref="A92:I92">'Summer 2023'!A15:I15</f>
         <v>111</v>
@@ -30763,7 +30768,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="75" cm="1">
         <f t="array" ref="A93:I93">'Summer 2023'!A16:I16</f>
         <v>112</v>
@@ -30793,7 +30798,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="75" cm="1">
         <f t="array" ref="A94:I94">'Summer 2023'!A17:I17</f>
         <v>113</v>
@@ -30823,7 +30828,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="75" cm="1">
         <f t="array" ref="A95:I95">'Summer 2023'!A18:I18</f>
         <v>114</v>
@@ -30853,7 +30858,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="75" cm="1">
         <f t="array" ref="A96:I96">'Summer 2023'!A19:I19</f>
         <v>115</v>
@@ -30883,7 +30888,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="75" cm="1">
         <f t="array" ref="A97:I97">'Summer 2023'!A20:I20</f>
         <v>116</v>
@@ -30913,7 +30918,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="75" cm="1">
         <f t="array" ref="A98:I98">'Summer 2023'!A21:I21</f>
         <v>117</v>
@@ -30943,7 +30948,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="75" cm="1">
         <f t="array" ref="A99:I99">'Summer 2023'!A22:I22</f>
         <v>118</v>
@@ -30973,7 +30978,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="75" cm="1">
         <f t="array" ref="A100:I100">'Summer 2023'!A23:I23</f>
         <v>119</v>
@@ -31003,7 +31008,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="75" cm="1">
         <f t="array" ref="A101:I101">'Summer 2023'!A24:I24</f>
         <v>120</v>
@@ -31033,7 +31038,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="75" cm="1">
         <f t="array" ref="A102:I102">'Summer 2023'!A25:I25</f>
         <v>121</v>
@@ -31063,7 +31068,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="75" cm="1">
         <f t="array" ref="A103:I103">'Summer 2023'!A26:I26</f>
         <v>122</v>
@@ -31093,7 +31098,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="75" cm="1">
         <f t="array" ref="A104:I104">'Summer 2023'!A27:I27</f>
         <v>123</v>
@@ -31123,7 +31128,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="75" cm="1">
         <f t="array" ref="A105:I105">'Summer 2023'!A28:I28</f>
         <v>124</v>
@@ -31153,7 +31158,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="75" cm="1">
         <f t="array" ref="A106:I106">'Summer 2023'!A29:I29</f>
         <v>125</v>
@@ -31183,7 +31188,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="75" cm="1">
         <f t="array" ref="A107:I107">'Summer 2023'!A30:I30</f>
         <v>126</v>
@@ -31213,7 +31218,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="75" cm="1">
         <f t="array" ref="A108:I108">'Summer 2023'!A31:I31</f>
         <v>127</v>
@@ -31243,7 +31248,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="75" cm="1">
         <f t="array" ref="A109:I109">'Summer 2023'!A32:I32</f>
         <v>128</v>
@@ -31273,7 +31278,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="75" cm="1">
         <f t="array" ref="A110:I110">'Summer 2023'!A33:I33</f>
         <v>129</v>
@@ -31303,7 +31308,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="75" cm="1">
         <f t="array" ref="A111:I111">'Summer 2023'!A34:I34</f>
         <v>130</v>
@@ -31333,7 +31338,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="75" cm="1">
         <f t="array" ref="A112:I112">'Summer 2023'!A35:I35</f>
         <v>131</v>
@@ -31363,7 +31368,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="75" cm="1">
         <f t="array" ref="A113:I113">'Summer 2023'!A36:I36</f>
         <v>132</v>
@@ -31393,7 +31398,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="75" cm="1">
         <f t="array" ref="A114:I114">'Summer 2023'!A37:I37</f>
         <v>133</v>
@@ -31423,7 +31428,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="75" cm="1">
         <f t="array" ref="A115:I115">'Summer 2023'!A38:I38</f>
         <v>134</v>
@@ -31453,7 +31458,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="75" cm="1">
         <f t="array" ref="A116:I116">'Summer 2023'!A39:I39</f>
         <v>135</v>
@@ -31483,7 +31488,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="75" cm="1">
         <f t="array" ref="A117:I117">'Summer 2023'!A40:I40</f>
         <v>136</v>
@@ -31513,7 +31518,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="75" cm="1">
         <f t="array" ref="A118:I118">'Summer 2023'!A41:I41</f>
         <v>137</v>
@@ -31543,7 +31548,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="75" cm="1">
         <f t="array" ref="A119:I119">'Summer 2023'!A42:I42</f>
         <v>138</v>
@@ -31573,7 +31578,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="75" cm="1">
         <f t="array" ref="A120:I120">'Summer 2023'!A43:I43</f>
         <v>139</v>
@@ -31603,7 +31608,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="75" cm="1">
         <f t="array" ref="A121:I121">'Summer 2023'!A44:I44</f>
         <v>140</v>
@@ -31633,7 +31638,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="75" cm="1">
         <f t="array" ref="A122:I122">'Summer 2023'!A45:I45</f>
         <v>141</v>
@@ -31663,7 +31668,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="75" cm="1">
         <f t="array" ref="A123:I123">'Summer 2023'!A46:I46</f>
         <v>142</v>
@@ -31693,7 +31698,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="75" cm="1">
         <f t="array" ref="A124:I124">'Summer 2023'!A47:I47</f>
         <v>143</v>
@@ -31723,7 +31728,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="75" cm="1">
         <f t="array" ref="A125:I125">'Summer 2023'!A48:I48</f>
         <v>144</v>
@@ -31753,7 +31758,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="75" cm="1">
         <f t="array" ref="A126:I126">'Summer 2023'!A49:I49</f>
         <v>145</v>
@@ -31783,7 +31788,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="75" cm="1">
         <f t="array" ref="A127:I127">'Summer 2023'!A50:I50</f>
         <v>146</v>
@@ -31813,7 +31818,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="75" cm="1">
         <f t="array" ref="A128:I128">'Summer 2023'!A51:I51</f>
         <v>147</v>
@@ -31846,7 +31851,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B129" s="85"/>
       <c r="C129" s="85"/>
       <c r="D129" s="85"/>
@@ -31856,7 +31861,7 @@
       <c r="H129" s="85"/>
       <c r="I129" s="85"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <f>'Fall 2023'!A4</f>
         <v>200</v>
@@ -31897,7 +31902,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <f>'Fall 2023'!A5</f>
         <v>201</v>
@@ -31938,7 +31943,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <f>'Fall 2023'!A6</f>
         <v>202</v>
@@ -31979,7 +31984,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <f>'Fall 2023'!A7</f>
         <v>203</v>
@@ -32017,7 +32022,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <f>'Fall 2023'!A8</f>
         <v>204</v>
@@ -32055,7 +32060,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <f>'Fall 2023'!A9</f>
         <v>205</v>
@@ -32093,7 +32098,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <f>'Fall 2023'!A10</f>
         <v>206</v>
@@ -32131,7 +32136,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <f>'Fall 2023'!A11</f>
         <v>207</v>
@@ -32169,7 +32174,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <f>'Fall 2023'!A12</f>
         <v>208</v>
@@ -32207,7 +32212,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <f>'Fall 2023'!A13</f>
         <v>209</v>
@@ -32245,7 +32250,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <f>'Fall 2023'!A14</f>
         <v>210</v>
@@ -32283,7 +32288,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <f>'Fall 2023'!A15</f>
         <v>211</v>
@@ -32321,7 +32326,7 @@
         <v>0.13439999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <f>'Fall 2023'!A16</f>
         <v>212</v>
@@ -32359,7 +32364,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <f>'Fall 2023'!A17</f>
         <v>213</v>
@@ -32397,7 +32402,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <f>'Fall 2023'!A18</f>
         <v>214</v>
@@ -32435,7 +32440,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <f>'Fall 2023'!A19</f>
         <v>215</v>
@@ -32473,7 +32478,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <f>'Fall 2023'!A20</f>
         <v>216</v>
@@ -32511,7 +32516,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <f>'Fall 2023'!A21</f>
         <v>217</v>
@@ -32549,7 +32554,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <f>'Fall 2023'!A22</f>
         <v>218</v>
@@ -32587,7 +32592,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <f>'Fall 2023'!A23</f>
         <v>219</v>
@@ -32625,7 +32630,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <f>'Fall 2023'!A24</f>
         <v>220</v>
@@ -32663,7 +32668,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <f>'Fall 2023'!A25</f>
         <v>221</v>
@@ -32701,7 +32706,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <f>'Fall 2023'!A26</f>
         <v>222</v>
@@ -32739,7 +32744,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <f>'Fall 2023'!A27</f>
         <v>223</v>
@@ -32777,7 +32782,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <f>'Fall 2023'!A28</f>
         <v>224</v>
@@ -32815,7 +32820,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <f>'Fall 2023'!A29</f>
         <v>225</v>
@@ -32853,7 +32858,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <f>'Fall 2023'!A30</f>
         <v>226</v>
@@ -32891,7 +32896,7 @@
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <f>'Fall 2023'!A31</f>
         <v>228</v>
@@ -32929,7 +32934,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <f>'Fall 2023'!A32</f>
         <v>229</v>
@@ -32967,7 +32972,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <f>'Fall 2023'!A33</f>
         <v>230</v>
@@ -33005,7 +33010,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <f>'Fall 2023'!A34</f>
         <v>231</v>
@@ -33043,7 +33048,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <f>'Fall 2023'!A35</f>
         <v>232</v>
@@ -33081,7 +33086,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <f>'Fall 2023'!A36</f>
         <v>233</v>
@@ -33119,7 +33124,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <f>'Fall 2023'!A37</f>
         <v>234</v>
@@ -33157,7 +33162,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <f>'Fall 2023'!A38</f>
         <v>235</v>
@@ -33195,7 +33200,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <f>'Fall 2023'!A39</f>
         <v>236</v>
@@ -33233,7 +33238,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <f>'Fall 2023'!A40</f>
         <v>237</v>
@@ -33271,7 +33276,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <f>'Fall 2023'!A41</f>
         <v>239</v>
@@ -33309,7 +33314,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <f>'Fall 2023'!A42</f>
         <v>240</v>
@@ -33347,7 +33352,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <f>'Fall 2023'!A43</f>
         <v>242</v>
@@ -33385,7 +33390,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <f>'Fall 2023'!A44</f>
         <v>243</v>
@@ -33423,7 +33428,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <f>'Fall 2023'!A45</f>
         <v>244</v>
@@ -33461,7 +33466,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <f>'Fall 2023'!A46</f>
         <v>245</v>
@@ -33499,7 +33504,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <f>'Fall 2023'!A47</f>
         <v>246</v>
@@ -33537,7 +33542,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="15">
         <f>'Fall 2023'!A48</f>
         <v>247</v>
@@ -33575,7 +33580,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="15">
         <f>'Fall 2023'!A49</f>
         <v>248</v>
@@ -33613,7 +33618,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="str">
         <f>'Fall 2023'!A50</f>
         <v>AM8 - 249</v>
@@ -33651,7 +33656,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="str">
         <f>'Fall 2023'!A51</f>
         <v>AM8 - 250</v>
@@ -33689,7 +33694,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="15">
         <f>'Fall 2023'!A52</f>
         <v>251</v>
@@ -33727,7 +33732,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="15">
         <f>'Fall 2023'!A53</f>
         <v>252</v>
@@ -33765,7 +33770,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="15">
         <f>'Fall 2023'!A54</f>
         <v>253</v>
@@ -33803,7 +33808,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="15">
         <f>'Fall 2023'!A55</f>
         <v>254</v>
@@ -33841,7 +33846,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="15">
         <f>'Fall 2023'!A56</f>
         <v>255</v>
@@ -33879,7 +33884,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="15">
         <f>'Fall 2023'!A57</f>
         <v>256</v>
@@ -33917,7 +33922,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="15">
         <f>'Fall 2023'!A58</f>
         <v>257</v>
@@ -33955,7 +33960,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="15">
         <f>'Fall 2023'!A59</f>
         <v>258</v>
@@ -33993,7 +33998,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="15">
         <f>'Fall 2023'!A60</f>
         <v>259</v>
@@ -34031,7 +34036,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="15">
         <f>'Fall 2023'!A61</f>
         <v>260</v>
@@ -34072,7 +34077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="15">
         <f>'Fall 2023'!A62</f>
         <v>261</v>
@@ -34111,7 +34116,7 @@
       </c>
       <c r="J188" s="286"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="15">
         <f>'Fall 2023'!A63</f>
         <v>262</v>
@@ -34150,7 +34155,7 @@
       </c>
       <c r="J189" s="286"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="15">
         <f>'Fall 2023'!A64</f>
         <v>263</v>
@@ -34189,7 +34194,7 @@
       </c>
       <c r="J190" s="286"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="15">
         <f>'Fall 2023'!A65</f>
         <v>264</v>
@@ -34228,7 +34233,7 @@
       </c>
       <c r="J191" s="286"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="15">
         <f>'Fall 2023'!A66</f>
         <v>265</v>
@@ -34267,7 +34272,7 @@
       </c>
       <c r="J192" s="286"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="15">
         <f>'Fall 2023'!A68</f>
         <v>267</v>
@@ -34306,7 +34311,7 @@
       </c>
       <c r="J193" s="286"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="15">
         <f>'Fall 2023'!A69</f>
         <v>268</v>
@@ -34345,7 +34350,7 @@
       </c>
       <c r="J194" s="286"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="15">
         <f>'Fall 2023'!A70</f>
         <v>269</v>
@@ -34384,7 +34389,7 @@
       </c>
       <c r="J195" s="286"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="15">
         <f>'Fall 2023'!A71</f>
         <v>270</v>
@@ -34423,7 +34428,7 @@
       </c>
       <c r="J196" s="286"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="15">
         <f>'Fall 2023'!A72</f>
         <v>271</v>
@@ -34461,7 +34466,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="15">
         <f>'Fall 2023'!A73</f>
         <v>272</v>
@@ -34499,7 +34504,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <f>'Fall 2023'!A74</f>
         <v>273</v>
@@ -34537,7 +34542,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <f>'Fall 2023'!A75</f>
         <v>274</v>
@@ -34575,7 +34580,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <f>'Fall 2023'!A76</f>
         <v>275</v>
@@ -34613,7 +34618,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <f>'Fall 2023'!A77</f>
         <v>276</v>
@@ -34651,7 +34656,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B203" s="85"/>
       <c r="C203" s="85"/>
       <c r="D203" s="85"/>
@@ -34661,7 +34666,7 @@
       <c r="H203" s="85"/>
       <c r="I203" s="85"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="270">
         <v>300</v>
       </c>
@@ -34690,7 +34695,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="270">
         <v>301</v>
       </c>
@@ -34719,7 +34724,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="76" cm="1">
         <f t="array" ref="A206:I206">'Winter 2024'!A6:I6</f>
         <v>302</v>
@@ -34749,7 +34754,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="76" cm="1">
         <f t="array" ref="A207:I207">'Winter 2024'!A7:I7</f>
         <v>303</v>
@@ -34779,7 +34784,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="76" cm="1">
         <f t="array" ref="A208:I208">'Winter 2024'!A8:I8</f>
         <v>304</v>
@@ -34809,7 +34814,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="76" cm="1">
         <f t="array" ref="A209:I209">'Winter 2024'!A9:I9</f>
         <v>305</v>
@@ -34839,7 +34844,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="76" cm="1">
         <f t="array" ref="A210:I210">'Winter 2024'!A10:I10</f>
         <v>306</v>
@@ -34869,7 +34874,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="76" cm="1">
         <f t="array" ref="A211:I211">'Winter 2024'!A11:I11</f>
         <v>307</v>
@@ -34899,7 +34904,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="76" cm="1">
         <f t="array" ref="A212:I212">'Winter 2024'!A12:I12</f>
         <v>308</v>
@@ -34929,7 +34934,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="76" cm="1">
         <f t="array" ref="A213:I213">'Winter 2024'!A13:I13</f>
         <v>309</v>
@@ -34959,7 +34964,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="76" cm="1">
         <f t="array" ref="A214:I214">'Winter 2024'!A14:I14</f>
         <v>310</v>
@@ -34989,7 +34994,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="76" cm="1">
         <f t="array" ref="A215:I215">'Winter 2024'!A15:I15</f>
         <v>311</v>
@@ -35019,7 +35024,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="76" cm="1">
         <f t="array" ref="A216:I216">'Winter 2024'!A16:I16</f>
         <v>312</v>
@@ -35049,7 +35054,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="76" cm="1">
         <f t="array" ref="A217:I217">'Winter 2024'!A17:I17</f>
         <v>313</v>
@@ -35079,7 +35084,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="76" cm="1">
         <f t="array" ref="A218:I218">'Winter 2024'!A18:I18</f>
         <v>314</v>
@@ -35109,7 +35114,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="76" cm="1">
         <f t="array" ref="A219:I219">'Winter 2024'!A19:I19</f>
         <v>315</v>
@@ -35139,7 +35144,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="76" cm="1">
         <f t="array" ref="A220:I220">'Winter 2024'!A20:I20</f>
         <v>316</v>
@@ -35169,7 +35174,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="76" cm="1">
         <f t="array" ref="A221:I221">'Winter 2024'!A21:I21</f>
         <v>317</v>
@@ -35199,7 +35204,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="76" cm="1">
         <f t="array" ref="A222:I222">'Winter 2024'!A22:I22</f>
         <v>318</v>
@@ -35229,7 +35234,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="76" cm="1">
         <f t="array" ref="A223:I223">'Winter 2024'!A23:I23</f>
         <v>319</v>
@@ -35259,7 +35264,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="76" cm="1">
         <f t="array" ref="A224:I224">'Winter 2024'!A24:I24</f>
         <v>320</v>
@@ -35289,7 +35294,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="76" cm="1">
         <f t="array" ref="A225:I225">'Winter 2024'!A25:I25</f>
         <v>321</v>
@@ -35319,7 +35324,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="76" cm="1">
         <f t="array" ref="A226:I226">'Winter 2024'!A26:I26</f>
         <v>322</v>
@@ -35349,7 +35354,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="76" cm="1">
         <f t="array" ref="A227:I227">'Winter 2024'!A27:I27</f>
         <v>323</v>
@@ -35379,7 +35384,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="76" cm="1">
         <f t="array" ref="A228:I228">'Winter 2024'!A28:I28</f>
         <v>324</v>
@@ -35409,7 +35414,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="76" cm="1">
         <f t="array" ref="A229:I229">'Winter 2024'!A29:I29</f>
         <v>325</v>
@@ -35439,7 +35444,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="76" cm="1">
         <f t="array" ref="A230:I230">'Winter 2024'!A30:I30</f>
         <v>326</v>
@@ -35469,7 +35474,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="76" cm="1">
         <f t="array" ref="A231:I231">'Winter 2024'!A31:I31</f>
         <v>327</v>
@@ -35499,7 +35504,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="76" cm="1">
         <f t="array" ref="A232:I232">'Winter 2024'!A32:I32</f>
         <v>328</v>
@@ -35529,7 +35534,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="76" cm="1">
         <f t="array" ref="A233:I233">'Winter 2024'!A33:I33</f>
         <v>329</v>
@@ -35559,7 +35564,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="76" cm="1">
         <f t="array" ref="A234:I234">'Winter 2024'!A34:I34</f>
         <v>330</v>
@@ -35589,7 +35594,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="76" cm="1">
         <f t="array" ref="A235:I235">'Winter 2024'!A35:I35</f>
         <v>331</v>
@@ -35619,7 +35624,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="76" cm="1">
         <f t="array" ref="A236:I236">'Winter 2024'!A36:I36</f>
         <v>332</v>
@@ -35649,7 +35654,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="76" cm="1">
         <f t="array" ref="A237:I237">'Winter 2024'!A37:I37</f>
         <v>333</v>
@@ -35679,7 +35684,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="76" cm="1">
         <f t="array" ref="A238:I238">'Winter 2024'!A38:I38</f>
         <v>334</v>
@@ -35709,7 +35714,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="76" cm="1">
         <f t="array" ref="A239:I239">'Winter 2024'!A39:I39</f>
         <v>335</v>
@@ -35739,7 +35744,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="76" cm="1">
         <f t="array" ref="A240:I240">'Winter 2024'!A40:I40</f>
         <v>336</v>
@@ -35769,7 +35774,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="76" cm="1">
         <f t="array" ref="A241:I241">'Winter 2024'!A41:I41</f>
         <v>337</v>
@@ -35799,7 +35804,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="76" cm="1">
         <f t="array" ref="A242:I242">'Winter 2024'!A42:I42</f>
         <v>338</v>
@@ -35829,7 +35834,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="76" cm="1">
         <f t="array" ref="A243:I243">'Winter 2024'!A43:I43</f>
         <v>339</v>
@@ -35859,7 +35864,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="76" cm="1">
         <f t="array" ref="A244:I244">'Winter 2024'!A44:I44</f>
         <v>340</v>
@@ -35889,7 +35894,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="76" cm="1">
         <f t="array" ref="A245:I245">'Winter 2024'!A45:I45</f>
         <v>341</v>
@@ -35919,7 +35924,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="76" cm="1">
         <f t="array" ref="A246:I246">'Winter 2024'!A46:I46</f>
         <v>342</v>
@@ -35949,7 +35954,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="76" cm="1">
         <f t="array" ref="A247:I247">'Winter 2024'!A47:I47</f>
         <v>343</v>
@@ -35979,7 +35984,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="76" cm="1">
         <f t="array" ref="A248:I248">'Winter 2024'!A48:I48</f>
         <v>344</v>
@@ -36009,7 +36014,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="76" cm="1">
         <f t="array" ref="A249:I249">'Winter 2024'!A49:I49</f>
         <v>345</v>
@@ -36039,7 +36044,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="76" cm="1">
         <f t="array" ref="A250:I250">'Winter 2024'!A50:I50</f>
         <v>346</v>
@@ -36069,7 +36074,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="76" cm="1">
         <f t="array" ref="A251:I251">'Winter 2024'!A51:I51</f>
         <v>347</v>
@@ -36099,7 +36104,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="76" cm="1">
         <f t="array" ref="A252:I252">'Winter 2024'!A52:I52</f>
         <v>348</v>
@@ -36129,7 +36134,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="76" cm="1">
         <f t="array" ref="A253:I253">'Winter 2024'!A53:I53</f>
         <v>349</v>
@@ -36159,7 +36164,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="76" cm="1">
         <f t="array" ref="A254:I254">'Winter 2024'!A54:I54</f>
         <v>350</v>
@@ -36189,7 +36194,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="76" cm="1">
         <f t="array" ref="A255:I255">'Winter 2024'!A55:I55</f>
         <v>351</v>
@@ -36219,7 +36224,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="76" cm="1">
         <f t="array" ref="A256:I256">'Winter 2024'!A56:I56</f>
         <v>352</v>
@@ -36249,7 +36254,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="76" cm="1">
         <f t="array" ref="A257:I257">'Winter 2024'!A57:I57</f>
         <v>353</v>
@@ -36279,7 +36284,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="76" cm="1">
         <f t="array" ref="A258:I258">'Winter 2024'!A58:I58</f>
         <v>354</v>
@@ -36309,7 +36314,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="76" cm="1">
         <f t="array" ref="A259:I259">'Winter 2024'!A59:I59</f>
         <v>355</v>
@@ -36339,7 +36344,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="76" cm="1">
         <f t="array" ref="A260:I260">'Winter 2024'!A60:I60</f>
         <v>356</v>
@@ -36369,7 +36374,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="76" cm="1">
         <f t="array" ref="A261:I261">'Winter 2024'!A61:I61</f>
         <v>357</v>
@@ -36399,7 +36404,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="76" cm="1">
         <f t="array" ref="A262:I262">'Winter 2024'!A62:I62</f>
         <v>358</v>
@@ -36429,7 +36434,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="76" cm="1">
         <f t="array" ref="A263:I263">'Winter 2024'!A63:I63</f>
         <v>359</v>
@@ -36459,7 +36464,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="76" cm="1">
         <f t="array" ref="A264:I264">'Winter 2024'!A64:I64</f>
         <v>360</v>
@@ -36489,7 +36494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="76" cm="1">
         <f t="array" ref="A265:I265">'Winter 2024'!A65:I65</f>
         <v>361</v>
@@ -36519,7 +36524,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="76" cm="1">
         <f t="array" ref="A266:I266">'Winter 2024'!A66:I66</f>
         <v>362</v>
@@ -36549,7 +36554,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="76" cm="1">
         <f t="array" ref="A267:I267">'Winter 2024'!A67:I67</f>
         <v>363</v>
@@ -36579,7 +36584,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="76" cm="1">
         <f t="array" ref="A268:I268">'Winter 2024'!A68:I68</f>
         <v>364</v>
@@ -36609,7 +36614,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="76" cm="1">
         <f t="array" ref="A269:I269">'Winter 2024'!A69:I69</f>
         <v>365</v>
@@ -36639,7 +36644,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="76" cm="1">
         <f t="array" ref="A270:I270">'Winter 2024'!A70:I70</f>
         <v>366</v>
@@ -36669,7 +36674,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="76" cm="1">
         <f t="array" ref="A271:I271">'Winter 2024'!A71:I71</f>
         <v>367</v>
@@ -36699,7 +36704,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="76" cm="1">
         <f t="array" ref="A272:I272">'Winter 2024'!A72:I72</f>
         <v>368</v>
@@ -36729,7 +36734,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="76" cm="1">
         <f t="array" ref="A273:I273">'Winter 2024'!A73:I73</f>
         <v>369</v>
@@ -36759,7 +36764,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="76" cm="1">
         <f t="array" ref="A274:I274">'Winter 2024'!A74:I74</f>
         <v>370</v>
@@ -36789,7 +36794,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="76" cm="1">
         <f t="array" ref="A275:I275">'Winter 2024'!A75:I75</f>
         <v>371</v>
@@ -36819,7 +36824,7 @@
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="76" cm="1">
         <f t="array" ref="A276:I276">'Winter 2024'!A76:I76</f>
         <v>372</v>
@@ -36849,7 +36854,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="76" cm="1">
         <f t="array" ref="A277:I277">'Winter 2024'!A77:I77</f>
         <v>373</v>
@@ -36879,7 +36884,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="76" cm="1">
         <f t="array" ref="A278:I278">'Winter 2024'!A78:I78</f>
         <v>374</v>
@@ -36909,7 +36914,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="76" cm="1">
         <f t="array" ref="A279:I279">'Winter 2024'!A79:I79</f>
         <v>375</v>
@@ -36939,7 +36944,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="76" cm="1">
         <f t="array" ref="A280:I280">'Winter 2024'!A80:I80</f>
         <v>376</v>
@@ -36969,7 +36974,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="76" cm="1">
         <f t="array" ref="A281:I281">'Winter 2024'!A81:I81</f>
         <v>377</v>
@@ -36999,7 +37004,7 @@
         <v>3.9200000000000006E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="76" cm="1">
         <f t="array" ref="A282:I282">'Winter 2024'!A82:I82</f>
         <v>378</v>
@@ -37029,7 +37034,7 @@
         <v>3.9200000000000006E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="76" cm="1">
         <f t="array" ref="A283:I283">'Winter 2024'!A83:I83</f>
         <v>379</v>
@@ -37059,7 +37064,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="76" cm="1">
         <f t="array" ref="A284:I284">'Winter 2024'!A84:I84</f>
         <v>380</v>
@@ -37089,7 +37094,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="76" cm="1">
         <f t="array" ref="A285:I285">'Winter 2024'!A85:I85</f>
         <v>381</v>
@@ -37119,7 +37124,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="76" cm="1">
         <f t="array" ref="A286:I286">'Winter 2024'!A86:I86</f>
         <v>382</v>
@@ -37149,7 +37154,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="76" cm="1">
         <f t="array" ref="A287:I287">'Winter 2024'!A87:I87</f>
         <v>383</v>
@@ -37179,7 +37184,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>498</v>
       </c>
@@ -37188,7 +37193,7 @@
         <v>-602</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="15" thickBot="1">
+    <row r="290" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="73"/>
       <c r="B290" s="70" t="s">
         <v>499</v>
@@ -37213,7 +37218,7 @@
         <v>21.639200000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="43.5">
+    <row r="291" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D291" s="71" t="s">
         <v>7</v>
       </c>
@@ -37233,7 +37238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="125"/>
       <c r="B294" s="126" t="s">
         <v>500</v>
@@ -37252,7 +37257,7 @@
         <v>12.697600000000012</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="129"/>
       <c r="B295" s="123"/>
       <c r="C295" s="123"/>
@@ -37263,7 +37268,7 @@
       <c r="H295" s="123"/>
       <c r="I295" s="130"/>
     </row>
-    <row r="296" spans="1:9" hidden="1">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="129" t="s">
         <v>501</v>
       </c>
@@ -37286,7 +37291,7 @@
         <v>22.5304</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="129"/>
       <c r="B297" s="135" t="s">
         <v>503</v>
@@ -37311,7 +37316,7 @@
         <v>-0.89119999999999422</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="129"/>
       <c r="B298" s="123"/>
       <c r="C298" s="123"/>
@@ -37322,7 +37327,7 @@
       <c r="H298" s="123"/>
       <c r="I298" s="130"/>
     </row>
-    <row r="299" spans="1:9" hidden="1">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="132"/>
       <c r="B299" s="133" t="s">
         <v>504</v>
@@ -37343,9 +37348,9 @@
         <v>22.688800000000008</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1"/>
-    <row r="301" spans="1:9" hidden="1"/>
-    <row r="302" spans="1:9" hidden="1">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="125"/>
       <c r="B302" s="126" t="s">
         <v>505</v>
@@ -37370,7 +37375,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="129"/>
       <c r="B303" s="123"/>
       <c r="C303" s="123"/>
@@ -37393,7 +37398,7 @@
         <v>0.94533996683250432</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="129" t="s">
         <v>501</v>
       </c>
@@ -37419,7 +37424,7 @@
         <v>22.5304</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="129"/>
       <c r="B305" s="135" t="s">
         <v>503</v>
@@ -37450,7 +37455,7 @@
         <v>0.27120000000000388</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="129"/>
       <c r="B306" s="123"/>
       <c r="C306" s="123"/>
@@ -37461,7 +37466,7 @@
       <c r="H306" s="123"/>
       <c r="I306" s="130"/>
     </row>
-    <row r="307" spans="1:9" ht="15" hidden="1" thickBot="1">
+    <row r="307" spans="1:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="132" t="s">
         <v>507</v>
       </c>
@@ -37484,7 +37489,7 @@
         <v>22.801600000000004</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D310" s="70">
         <v>5010</v>
       </c>
@@ -37500,7 +37505,7 @@
         <v>22.121600000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="125"/>
       <c r="B313" s="126" t="s">
         <v>509</v>
@@ -37521,7 +37526,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="129"/>
       <c r="B314" s="123"/>
       <c r="C314" s="123"/>
@@ -37544,7 +37549,7 @@
         <v>0.96494286923402472</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="129" t="s">
         <v>501</v>
       </c>
@@ -37570,7 +37575,7 @@
         <v>22.5304</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="129"/>
       <c r="B316" s="268" t="s">
         <v>503</v>
@@ -37601,7 +37606,7 @@
         <v>0.27120000000000388</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="129"/>
       <c r="B317" s="267"/>
       <c r="C317" s="123"/>
@@ -37612,7 +37617,7 @@
       <c r="H317" s="123"/>
       <c r="I317" s="130"/>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="132" t="s">
         <v>507</v>
       </c>
@@ -37661,42 +37666,42 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F114" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="62" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="63" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="84" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="63" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="107" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="63" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="63" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="26" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="27" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="9.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="28" width="13.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="65.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="96" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" style="4" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="15.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="63" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="107" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="5.7265625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" style="26" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" style="27" customWidth="1"/>
+    <col min="16" max="16" width="20.7265625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="22.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.26953125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.26953125" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="13.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="65.26953125" style="4" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.26953125" style="96" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="14.26953125" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="204"/>
       <c r="B1" s="137"/>
       <c r="C1" s="138"/>
@@ -37744,7 +37749,7 @@
       <c r="AQ1" s="207"/>
       <c r="AR1" s="207"/>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="145"/>
       <c r="B2" s="145"/>
       <c r="C2" s="139"/>
@@ -37797,7 +37802,7 @@
       <c r="AR2" s="145"/>
       <c r="AS2" s="30"/>
     </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" ht="43.5">
+    <row r="3" spans="1:45" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="236" t="s">
         <v>510</v>
       </c>
@@ -37888,7 +37893,7 @@
       <c r="AR3" s="149"/>
       <c r="AS3" s="16"/>
     </row>
-    <row r="4" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="236" t="s">
         <v>514</v>
       </c>
@@ -37967,7 +37972,7 @@
       <c r="AR4" s="149"/>
       <c r="AS4" s="16"/>
     </row>
-    <row r="5" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="236" t="s">
         <v>514</v>
       </c>
@@ -38046,7 +38051,7 @@
       <c r="AR5" s="149"/>
       <c r="AS5" s="16"/>
     </row>
-    <row r="6" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="236" t="s">
         <v>514</v>
       </c>
@@ -38123,7 +38128,7 @@
       <c r="AR6" s="149"/>
       <c r="AS6" s="16"/>
     </row>
-    <row r="7" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="236" t="s">
         <v>514</v>
       </c>
@@ -38202,7 +38207,7 @@
       <c r="AR7" s="149"/>
       <c r="AS7" s="16"/>
     </row>
-    <row r="8" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="236" t="s">
         <v>522</v>
       </c>
@@ -38281,7 +38286,7 @@
       <c r="AR8" s="149"/>
       <c r="AS8" s="16"/>
     </row>
-    <row r="9" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="236" t="s">
         <v>522</v>
       </c>
@@ -38358,7 +38363,7 @@
       <c r="AR9" s="149"/>
       <c r="AS9" s="16"/>
     </row>
-    <row r="10" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="236" t="s">
         <v>529</v>
       </c>
@@ -38438,7 +38443,7 @@
       <c r="AR10" s="149"/>
       <c r="AS10" s="16"/>
     </row>
-    <row r="11" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="236" t="s">
         <v>529</v>
       </c>
@@ -38516,7 +38521,7 @@
       <c r="AR11" s="149"/>
       <c r="AS11" s="16"/>
     </row>
-    <row r="12" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="236" t="s">
         <v>532</v>
       </c>
@@ -38526,7 +38531,7 @@
       <c r="C12" s="223" t="s">
         <v>534</v>
       </c>
-      <c r="D12" s="297" t="s">
+      <c r="D12" s="289" t="s">
         <v>535</v>
       </c>
       <c r="E12" s="151" t="s">
@@ -38590,13 +38595,13 @@
       <c r="AR12" s="149"/>
       <c r="AS12" s="16"/>
     </row>
-    <row r="13" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="13" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="236"/>
       <c r="B13" s="220"/>
       <c r="C13" s="228" t="s">
         <v>536</v>
       </c>
-      <c r="D13" s="297"/>
+      <c r="D13" s="289"/>
       <c r="E13" s="151" t="s">
         <v>156</v>
       </c>
@@ -38658,11 +38663,11 @@
       <c r="AR13" s="149"/>
       <c r="AS13" s="16"/>
     </row>
-    <row r="14" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="236"/>
       <c r="B14" s="220"/>
       <c r="C14" s="223"/>
-      <c r="D14" s="297"/>
+      <c r="D14" s="289"/>
       <c r="E14" s="151" t="s">
         <v>158</v>
       </c>
@@ -38724,13 +38729,13 @@
       <c r="AR14" s="149"/>
       <c r="AS14" s="16"/>
     </row>
-    <row r="15" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="236"/>
       <c r="B15" s="220"/>
-      <c r="C15" s="296" t="s">
+      <c r="C15" s="290" t="s">
         <v>537</v>
       </c>
-      <c r="D15" s="297" t="s">
+      <c r="D15" s="289" t="s">
         <v>535</v>
       </c>
       <c r="E15" s="151" t="s">
@@ -38798,11 +38803,11 @@
       <c r="AR15" s="149"/>
       <c r="AS15" s="16"/>
     </row>
-    <row r="16" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="236"/>
       <c r="B16" s="220"/>
-      <c r="C16" s="296"/>
-      <c r="D16" s="297"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="289"/>
       <c r="E16" s="151" t="s">
         <v>162</v>
       </c>
@@ -38868,11 +38873,11 @@
       <c r="AR16" s="149"/>
       <c r="AS16" s="16"/>
     </row>
-    <row r="17" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="236"/>
       <c r="B17" s="220"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="297"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="289"/>
       <c r="E17" s="151" t="s">
         <v>164</v>
       </c>
@@ -38938,13 +38943,13 @@
       <c r="AR17" s="149"/>
       <c r="AS17" s="16"/>
     </row>
-    <row r="18" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="236"/>
       <c r="B18" s="220"/>
-      <c r="C18" s="296" t="s">
+      <c r="C18" s="290" t="s">
         <v>538</v>
       </c>
-      <c r="D18" s="297" t="s">
+      <c r="D18" s="289" t="s">
         <v>539</v>
       </c>
       <c r="E18" s="151" t="s">
@@ -39012,11 +39017,11 @@
       <c r="AR18" s="149"/>
       <c r="AS18" s="16"/>
     </row>
-    <row r="19" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="236"/>
       <c r="B19" s="220"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="297"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="289"/>
       <c r="E19" s="151" t="s">
         <v>168</v>
       </c>
@@ -39082,11 +39087,11 @@
       <c r="AR19" s="149"/>
       <c r="AS19" s="16"/>
     </row>
-    <row r="20" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="236"/>
       <c r="B20" s="220"/>
-      <c r="C20" s="296"/>
-      <c r="D20" s="297"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="289"/>
       <c r="E20" s="151" t="s">
         <v>170</v>
       </c>
@@ -39152,7 +39157,7 @@
       <c r="AR20" s="149"/>
       <c r="AS20" s="16"/>
     </row>
-    <row r="21" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="236" t="s">
         <v>540</v>
       </c>
@@ -39211,7 +39216,7 @@
       <c r="AR21" s="149"/>
       <c r="AS21" s="16"/>
     </row>
-    <row r="22" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="236" t="s">
         <v>545</v>
       </c>
@@ -39291,7 +39296,7 @@
       <c r="AR22" s="149"/>
       <c r="AS22" s="16"/>
     </row>
-    <row r="23" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="236" t="s">
         <v>545</v>
       </c>
@@ -39301,7 +39306,7 @@
       <c r="C23" s="223" t="s">
         <v>534</v>
       </c>
-      <c r="D23" s="297" t="s">
+      <c r="D23" s="289" t="s">
         <v>524</v>
       </c>
       <c r="E23" s="151" t="s">
@@ -39365,13 +39370,13 @@
       <c r="AR23" s="149"/>
       <c r="AS23" s="16"/>
     </row>
-    <row r="24" spans="1:45" s="2" customFormat="1" ht="24.6" customHeight="1">
+    <row r="24" spans="1:45" s="2" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="220"/>
       <c r="B24" s="220"/>
       <c r="C24" s="228" t="s">
         <v>549</v>
       </c>
-      <c r="D24" s="297"/>
+      <c r="D24" s="289"/>
       <c r="E24" s="151" t="s">
         <v>550</v>
       </c>
@@ -39433,11 +39438,11 @@
       <c r="AR24" s="149"/>
       <c r="AS24" s="16"/>
     </row>
-    <row r="25" spans="1:45" s="2" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:45" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="220"/>
       <c r="B25" s="220"/>
       <c r="C25" s="223"/>
-      <c r="D25" s="297"/>
+      <c r="D25" s="289"/>
       <c r="E25" s="151" t="s">
         <v>551</v>
       </c>
@@ -39499,13 +39504,13 @@
       <c r="AR25" s="149"/>
       <c r="AS25" s="16"/>
     </row>
-    <row r="26" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="220"/>
       <c r="B26" s="220"/>
-      <c r="C26" s="296" t="s">
+      <c r="C26" s="290" t="s">
         <v>552</v>
       </c>
-      <c r="D26" s="297" t="s">
+      <c r="D26" s="289" t="s">
         <v>524</v>
       </c>
       <c r="E26" s="151" t="s">
@@ -39569,11 +39574,11 @@
       <c r="AR26" s="166"/>
       <c r="AS26" s="98"/>
     </row>
-    <row r="27" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="220"/>
       <c r="B27" s="220"/>
-      <c r="C27" s="296"/>
-      <c r="D27" s="297"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="289"/>
       <c r="E27" s="151" t="s">
         <v>554</v>
       </c>
@@ -39635,11 +39640,11 @@
       <c r="AR27" s="166"/>
       <c r="AS27" s="98"/>
     </row>
-    <row r="28" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="220"/>
       <c r="B28" s="220"/>
-      <c r="C28" s="296"/>
-      <c r="D28" s="297"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="289"/>
       <c r="E28" s="151" t="s">
         <v>555</v>
       </c>
@@ -39701,13 +39706,13 @@
       <c r="AR28" s="166"/>
       <c r="AS28" s="98"/>
     </row>
-    <row r="29" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="220"/>
       <c r="B29" s="220"/>
-      <c r="C29" s="296" t="s">
+      <c r="C29" s="290" t="s">
         <v>556</v>
       </c>
-      <c r="D29" s="297" t="s">
+      <c r="D29" s="289" t="s">
         <v>524</v>
       </c>
       <c r="E29" s="151" t="s">
@@ -39771,11 +39776,11 @@
       <c r="AR29" s="166"/>
       <c r="AS29" s="98"/>
     </row>
-    <row r="30" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="220"/>
       <c r="B30" s="220"/>
-      <c r="C30" s="296"/>
-      <c r="D30" s="297"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="289"/>
       <c r="E30" s="151" t="s">
         <v>558</v>
       </c>
@@ -39837,11 +39842,11 @@
       <c r="AR30" s="166"/>
       <c r="AS30" s="98"/>
     </row>
-    <row r="31" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="220"/>
       <c r="B31" s="220"/>
-      <c r="C31" s="296"/>
-      <c r="D31" s="297"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="289"/>
       <c r="E31" s="151" t="s">
         <v>559</v>
       </c>
@@ -39903,11 +39908,11 @@
       <c r="AR31" s="166"/>
       <c r="AS31" s="98"/>
     </row>
-    <row r="32" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="32" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="220" t="s">
         <v>560</v>
       </c>
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="287" t="s">
         <v>533</v>
       </c>
       <c r="C32" s="223" t="s">
@@ -39990,9 +39995,9 @@
       <c r="AR32" s="166"/>
       <c r="AS32" s="98"/>
     </row>
-    <row r="33" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="220"/>
-      <c r="B33" s="295"/>
+      <c r="B33" s="288"/>
       <c r="C33" s="223" t="s">
         <v>562</v>
       </c>
@@ -40070,11 +40075,11 @@
       <c r="AR33" s="166"/>
       <c r="AS33" s="98"/>
     </row>
-    <row r="34" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="220" t="s">
         <v>563</v>
       </c>
-      <c r="B34" s="293" t="s">
+      <c r="B34" s="287" t="s">
         <v>533</v>
       </c>
       <c r="C34" s="238" t="s">
@@ -40154,9 +40159,9 @@
       <c r="AR34" s="166"/>
       <c r="AS34" s="98"/>
     </row>
-    <row r="35" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="220"/>
-      <c r="B35" s="295"/>
+      <c r="B35" s="288"/>
       <c r="C35" s="228" t="s">
         <v>565</v>
       </c>
@@ -40234,7 +40239,7 @@
       <c r="AR35" s="166"/>
       <c r="AS35" s="98"/>
     </row>
-    <row r="36" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="220" t="s">
         <v>566</v>
       </c>
@@ -40308,7 +40313,7 @@
       <c r="AR36" s="166"/>
       <c r="AS36" s="98"/>
     </row>
-    <row r="37" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="220"/>
       <c r="B37" s="220" t="s">
         <v>533</v>
@@ -40380,7 +40385,7 @@
       <c r="AR37" s="166"/>
       <c r="AS37" s="98"/>
     </row>
-    <row r="38" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="38" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="220"/>
       <c r="B38" s="220" t="s">
         <v>515</v>
@@ -40450,9 +40455,9 @@
       <c r="AR38" s="166"/>
       <c r="AS38" s="98"/>
     </row>
-    <row r="39" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="39" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="220"/>
-      <c r="B39" s="293" t="s">
+      <c r="B39" s="287" t="s">
         <v>533</v>
       </c>
       <c r="C39" s="228" t="s">
@@ -40522,9 +40527,9 @@
       <c r="AR39" s="166"/>
       <c r="AS39" s="98"/>
     </row>
-    <row r="40" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="40" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="220"/>
-      <c r="B40" s="295"/>
+      <c r="B40" s="288"/>
       <c r="C40" s="239" t="s">
         <v>570</v>
       </c>
@@ -40592,7 +40597,7 @@
       <c r="AR40" s="166"/>
       <c r="AS40" s="98"/>
     </row>
-    <row r="41" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="41" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="220"/>
       <c r="B41" s="220" t="s">
         <v>515</v>
@@ -40662,9 +40667,9 @@
       <c r="AR41" s="166"/>
       <c r="AS41" s="98"/>
     </row>
-    <row r="42" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="42" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="220"/>
-      <c r="B42" s="293" t="s">
+      <c r="B42" s="287" t="s">
         <v>533</v>
       </c>
       <c r="C42" s="239" t="s">
@@ -40734,9 +40739,9 @@
       <c r="AR42" s="166"/>
       <c r="AS42" s="98"/>
     </row>
-    <row r="43" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1">
+    <row r="43" spans="1:45" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="220"/>
-      <c r="B43" s="295"/>
+      <c r="B43" s="288"/>
       <c r="C43" s="239" t="s">
         <v>574</v>
       </c>
@@ -40804,7 +40809,7 @@
       <c r="AR43" s="166"/>
       <c r="AS43" s="98"/>
     </row>
-    <row r="44" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="220"/>
       <c r="B44" s="220" t="s">
         <v>515</v>
@@ -40874,9 +40879,9 @@
       <c r="AR44" s="166"/>
       <c r="AS44" s="98"/>
     </row>
-    <row r="45" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="220"/>
-      <c r="B45" s="293" t="s">
+      <c r="B45" s="287" t="s">
         <v>533</v>
       </c>
       <c r="C45" s="239" t="s">
@@ -40946,9 +40951,9 @@
       <c r="AR45" s="166"/>
       <c r="AS45" s="98"/>
     </row>
-    <row r="46" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="220"/>
-      <c r="B46" s="295"/>
+      <c r="B46" s="288"/>
       <c r="C46" s="239" t="s">
         <v>576</v>
       </c>
@@ -41016,7 +41021,7 @@
       <c r="AR46" s="166"/>
       <c r="AS46" s="98"/>
     </row>
-    <row r="47" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="220"/>
       <c r="B47" s="220" t="s">
         <v>515</v>
@@ -41086,9 +41091,9 @@
       <c r="AR47" s="166"/>
       <c r="AS47" s="98"/>
     </row>
-    <row r="48" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="220"/>
-      <c r="B48" s="293" t="s">
+      <c r="B48" s="287" t="s">
         <v>578</v>
       </c>
       <c r="C48" s="239" t="s">
@@ -41139,9 +41144,9 @@
       <c r="AR48" s="166"/>
       <c r="AS48" s="98"/>
     </row>
-    <row r="49" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="49" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="220"/>
-      <c r="B49" s="294"/>
+      <c r="B49" s="291"/>
       <c r="C49" s="239" t="s">
         <v>580</v>
       </c>
@@ -41190,9 +41195,9 @@
       <c r="AR49" s="166"/>
       <c r="AS49" s="98"/>
     </row>
-    <row r="50" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="50" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="220"/>
-      <c r="B50" s="294"/>
+      <c r="B50" s="291"/>
       <c r="C50" s="239" t="s">
         <v>581</v>
       </c>
@@ -41241,9 +41246,9 @@
       <c r="AR50" s="166"/>
       <c r="AS50" s="98"/>
     </row>
-    <row r="51" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="51" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="220"/>
-      <c r="B51" s="294"/>
+      <c r="B51" s="291"/>
       <c r="C51" s="239" t="s">
         <v>582</v>
       </c>
@@ -41292,9 +41297,9 @@
       <c r="AR51" s="166"/>
       <c r="AS51" s="98"/>
     </row>
-    <row r="52" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="52" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="220"/>
-      <c r="B52" s="294"/>
+      <c r="B52" s="291"/>
       <c r="C52" s="239" t="s">
         <v>583</v>
       </c>
@@ -41343,9 +41348,9 @@
       <c r="AR52" s="166"/>
       <c r="AS52" s="98"/>
     </row>
-    <row r="53" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="53" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="220"/>
-      <c r="B53" s="294"/>
+      <c r="B53" s="291"/>
       <c r="C53" s="239" t="s">
         <v>584</v>
       </c>
@@ -41394,9 +41399,9 @@
       <c r="AR53" s="166"/>
       <c r="AS53" s="98"/>
     </row>
-    <row r="54" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="54" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="220"/>
-      <c r="B54" s="294"/>
+      <c r="B54" s="291"/>
       <c r="C54" s="239" t="s">
         <v>585</v>
       </c>
@@ -41445,9 +41450,9 @@
       <c r="AR54" s="166"/>
       <c r="AS54" s="98"/>
     </row>
-    <row r="55" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="55" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="220"/>
-      <c r="B55" s="294"/>
+      <c r="B55" s="291"/>
       <c r="C55" s="239" t="s">
         <v>586</v>
       </c>
@@ -41496,9 +41501,9 @@
       <c r="AR55" s="166"/>
       <c r="AS55" s="98"/>
     </row>
-    <row r="56" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="56" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="220"/>
-      <c r="B56" s="294"/>
+      <c r="B56" s="291"/>
       <c r="C56" s="239" t="s">
         <v>587</v>
       </c>
@@ -41547,9 +41552,9 @@
       <c r="AR56" s="166"/>
       <c r="AS56" s="98"/>
     </row>
-    <row r="57" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="57" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="220"/>
-      <c r="B57" s="294"/>
+      <c r="B57" s="291"/>
       <c r="C57" s="239" t="s">
         <v>588</v>
       </c>
@@ -41598,9 +41603,9 @@
       <c r="AR57" s="166"/>
       <c r="AS57" s="98"/>
     </row>
-    <row r="58" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="58" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="220"/>
-      <c r="B58" s="294"/>
+      <c r="B58" s="291"/>
       <c r="C58" s="239" t="s">
         <v>589</v>
       </c>
@@ -41649,9 +41654,9 @@
       <c r="AR58" s="166"/>
       <c r="AS58" s="98"/>
     </row>
-    <row r="59" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="59" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="220"/>
-      <c r="B59" s="294"/>
+      <c r="B59" s="291"/>
       <c r="C59" s="239" t="s">
         <v>590</v>
       </c>
@@ -41700,9 +41705,9 @@
       <c r="AR59" s="166"/>
       <c r="AS59" s="98"/>
     </row>
-    <row r="60" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="60" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="220"/>
-      <c r="B60" s="294"/>
+      <c r="B60" s="291"/>
       <c r="C60" s="239" t="s">
         <v>518</v>
       </c>
@@ -41751,9 +41756,9 @@
       <c r="AR60" s="166"/>
       <c r="AS60" s="98"/>
     </row>
-    <row r="61" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="61" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="220"/>
-      <c r="B61" s="294"/>
+      <c r="B61" s="291"/>
       <c r="C61" s="239" t="s">
         <v>519</v>
       </c>
@@ -41802,9 +41807,9 @@
       <c r="AR61" s="166"/>
       <c r="AS61" s="98"/>
     </row>
-    <row r="62" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="62" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="220"/>
-      <c r="B62" s="294"/>
+      <c r="B62" s="291"/>
       <c r="C62" s="239" t="s">
         <v>520</v>
       </c>
@@ -41853,9 +41858,9 @@
       <c r="AR62" s="166"/>
       <c r="AS62" s="98"/>
     </row>
-    <row r="63" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="63" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="220"/>
-      <c r="B63" s="295"/>
+      <c r="B63" s="288"/>
       <c r="C63" s="239" t="s">
         <v>521</v>
       </c>
@@ -41904,9 +41909,9 @@
       <c r="AR63" s="166"/>
       <c r="AS63" s="98"/>
     </row>
-    <row r="64" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="64" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="220"/>
-      <c r="B64" s="293" t="s">
+      <c r="B64" s="287" t="s">
         <v>515</v>
       </c>
       <c r="C64" s="223"/>
@@ -41974,9 +41979,9 @@
       <c r="AR64" s="166"/>
       <c r="AS64" s="98"/>
     </row>
-    <row r="65" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="65" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="220"/>
-      <c r="B65" s="294"/>
+      <c r="B65" s="291"/>
       <c r="C65" s="223"/>
       <c r="D65" s="220" t="s">
         <v>517</v>
@@ -42042,9 +42047,9 @@
       <c r="AR65" s="166"/>
       <c r="AS65" s="98"/>
     </row>
-    <row r="66" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="66" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="220"/>
-      <c r="B66" s="295"/>
+      <c r="B66" s="288"/>
       <c r="C66" s="223"/>
       <c r="D66" s="220" t="s">
         <v>517</v>
@@ -42110,7 +42115,7 @@
       <c r="AR66" s="166"/>
       <c r="AS66" s="98"/>
     </row>
-    <row r="67" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="67" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="220"/>
       <c r="B67" s="220" t="s">
         <v>533</v>
@@ -42182,9 +42187,9 @@
       <c r="AR67" s="166"/>
       <c r="AS67" s="98"/>
     </row>
-    <row r="68" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="68" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="220"/>
-      <c r="B68" s="293" t="s">
+      <c r="B68" s="287" t="s">
         <v>515</v>
       </c>
       <c r="C68" s="223"/>
@@ -42252,9 +42257,9 @@
       <c r="AR68" s="166"/>
       <c r="AS68" s="98"/>
     </row>
-    <row r="69" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="69" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="220"/>
-      <c r="B69" s="295"/>
+      <c r="B69" s="288"/>
       <c r="C69" s="223"/>
       <c r="D69" s="220" t="s">
         <v>517</v>
@@ -42320,7 +42325,7 @@
       <c r="AR69" s="166"/>
       <c r="AS69" s="98"/>
     </row>
-    <row r="70" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="70" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="220"/>
       <c r="B70" s="220" t="s">
         <v>578</v>
@@ -42373,7 +42378,7 @@
       <c r="AR70" s="166"/>
       <c r="AS70" s="98"/>
     </row>
-    <row r="71" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="71" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="220" t="s">
         <v>592</v>
       </c>
@@ -42447,7 +42452,7 @@
       <c r="AR71" s="166"/>
       <c r="AS71" s="98"/>
     </row>
-    <row r="72" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="72" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="220" t="s">
         <v>595</v>
       </c>
@@ -42502,7 +42507,7 @@
       <c r="AR72" s="166"/>
       <c r="AS72" s="98"/>
     </row>
-    <row r="73" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="73" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="220"/>
       <c r="B73" s="220"/>
       <c r="C73" s="228" t="s">
@@ -42553,7 +42558,7 @@
       <c r="AR73" s="166"/>
       <c r="AS73" s="98"/>
     </row>
-    <row r="74" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="74" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="220"/>
       <c r="B74" s="220" t="s">
         <v>533</v>
@@ -42625,7 +42630,7 @@
       <c r="AR74" s="166"/>
       <c r="AS74" s="98"/>
     </row>
-    <row r="75" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="75" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="220" t="s">
         <v>599</v>
       </c>
@@ -42699,7 +42704,7 @@
       <c r="AR75" s="166"/>
       <c r="AS75" s="98"/>
     </row>
-    <row r="76" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="76" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="220"/>
       <c r="B76" s="220" t="s">
         <v>515</v>
@@ -42771,7 +42776,7 @@
       <c r="AR76" s="166"/>
       <c r="AS76" s="98"/>
     </row>
-    <row r="77" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="77" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="220"/>
       <c r="B77" s="220" t="s">
         <v>533</v>
@@ -42843,7 +42848,7 @@
       <c r="AR77" s="166"/>
       <c r="AS77" s="98"/>
     </row>
-    <row r="78" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="78" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="220"/>
       <c r="B78" s="220" t="s">
         <v>533</v>
@@ -42915,7 +42920,7 @@
       <c r="AR78" s="166"/>
       <c r="AS78" s="98"/>
     </row>
-    <row r="79" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="79" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="220"/>
       <c r="B79" s="220" t="s">
         <v>578</v>
@@ -42987,7 +42992,7 @@
       <c r="AR79" s="166"/>
       <c r="AS79" s="98"/>
     </row>
-    <row r="80" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="80" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="220"/>
       <c r="B80" s="220"/>
       <c r="C80" s="228" t="s">
@@ -43057,7 +43062,7 @@
       <c r="AR80" s="166"/>
       <c r="AS80" s="98"/>
     </row>
-    <row r="81" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="81" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="220"/>
       <c r="B81" s="220" t="s">
         <v>515</v>
@@ -43129,7 +43134,7 @@
       <c r="AR81" s="166"/>
       <c r="AS81" s="98"/>
     </row>
-    <row r="82" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="82" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="220"/>
       <c r="B82" s="220"/>
       <c r="C82" s="223" t="s">
@@ -43199,7 +43204,7 @@
       <c r="AR82" s="166"/>
       <c r="AS82" s="98"/>
     </row>
-    <row r="83" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="83" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="220"/>
       <c r="B83" s="220"/>
       <c r="C83" s="223" t="s">
@@ -43269,7 +43274,7 @@
       <c r="AR83" s="166"/>
       <c r="AS83" s="98"/>
     </row>
-    <row r="84" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="84" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="220"/>
       <c r="B84" s="220"/>
       <c r="C84" s="223" t="s">
@@ -43339,7 +43344,7 @@
       <c r="AR84" s="166"/>
       <c r="AS84" s="98"/>
     </row>
-    <row r="85" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="85" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="220"/>
       <c r="B85" s="220" t="s">
         <v>578</v>
@@ -43392,7 +43397,7 @@
       <c r="AR85" s="166"/>
       <c r="AS85" s="98"/>
     </row>
-    <row r="86" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="86" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="220"/>
       <c r="B86" s="220"/>
       <c r="C86" s="228" t="s">
@@ -43443,7 +43448,7 @@
       <c r="AR86" s="166"/>
       <c r="AS86" s="98"/>
     </row>
-    <row r="87" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="87" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="220"/>
       <c r="B87" s="220"/>
       <c r="C87" s="228" t="s">
@@ -43494,7 +43499,7 @@
       <c r="AR87" s="166"/>
       <c r="AS87" s="98"/>
     </row>
-    <row r="88" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="88" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="220"/>
       <c r="B88" s="220"/>
       <c r="C88" s="228" t="s">
@@ -43545,7 +43550,7 @@
       <c r="AR88" s="166"/>
       <c r="AS88" s="98"/>
     </row>
-    <row r="89" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="89" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="220"/>
       <c r="B89" s="220"/>
       <c r="C89" s="228" t="s">
@@ -43596,7 +43601,7 @@
       <c r="AR89" s="166"/>
       <c r="AS89" s="98"/>
     </row>
-    <row r="90" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="90" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="220"/>
       <c r="B90" s="220"/>
       <c r="C90" s="228" t="s">
@@ -43647,7 +43652,7 @@
       <c r="AR90" s="166"/>
       <c r="AS90" s="98"/>
     </row>
-    <row r="91" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="91" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="220"/>
       <c r="B91" s="220"/>
       <c r="C91" s="228" t="s">
@@ -43698,7 +43703,7 @@
       <c r="AR91" s="166"/>
       <c r="AS91" s="98"/>
     </row>
-    <row r="92" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="92" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="220"/>
       <c r="B92" s="220"/>
       <c r="C92" s="228" t="s">
@@ -43749,7 +43754,7 @@
       <c r="AR92" s="166"/>
       <c r="AS92" s="98"/>
     </row>
-    <row r="93" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="93" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="220"/>
       <c r="B93" s="220"/>
       <c r="C93" s="228" t="s">
@@ -43800,7 +43805,7 @@
       <c r="AR93" s="166"/>
       <c r="AS93" s="98"/>
     </row>
-    <row r="94" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="94" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="220"/>
       <c r="B94" s="220"/>
       <c r="C94" s="228" t="s">
@@ -43851,7 +43856,7 @@
       <c r="AR94" s="166"/>
       <c r="AS94" s="98"/>
     </row>
-    <row r="95" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="95" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="220"/>
       <c r="B95" s="220"/>
       <c r="C95" s="228" t="s">
@@ -43902,7 +43907,7 @@
       <c r="AR95" s="166"/>
       <c r="AS95" s="98"/>
     </row>
-    <row r="96" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="96" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="220"/>
       <c r="B96" s="220"/>
       <c r="C96" s="228" t="s">
@@ -43953,7 +43958,7 @@
       <c r="AR96" s="166"/>
       <c r="AS96" s="98"/>
     </row>
-    <row r="97" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="97" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="220"/>
       <c r="B97" s="220"/>
       <c r="C97" s="228" t="s">
@@ -44004,7 +44009,7 @@
       <c r="AR97" s="166"/>
       <c r="AS97" s="98"/>
     </row>
-    <row r="98" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="98" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="220"/>
       <c r="B98" s="220"/>
       <c r="C98" s="228" t="s">
@@ -44055,7 +44060,7 @@
       <c r="AR98" s="166"/>
       <c r="AS98" s="98"/>
     </row>
-    <row r="99" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="99" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="220"/>
       <c r="B99" s="220"/>
       <c r="C99" s="228" t="s">
@@ -44106,7 +44111,7 @@
       <c r="AR99" s="166"/>
       <c r="AS99" s="98"/>
     </row>
-    <row r="100" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="100" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="220"/>
       <c r="B100" s="220"/>
       <c r="C100" s="228" t="s">
@@ -44157,7 +44162,7 @@
       <c r="AR100" s="166"/>
       <c r="AS100" s="98"/>
     </row>
-    <row r="101" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="101" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="220"/>
       <c r="B101" s="220"/>
       <c r="C101" s="228" t="s">
@@ -44208,7 +44213,7 @@
       <c r="AR101" s="166"/>
       <c r="AS101" s="98"/>
     </row>
-    <row r="102" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="102" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="220" t="s">
         <v>612</v>
       </c>
@@ -44282,7 +44287,7 @@
       <c r="AR102" s="166"/>
       <c r="AS102" s="98"/>
     </row>
-    <row r="103" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="103" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="220"/>
       <c r="B103" s="220"/>
       <c r="C103" s="223" t="s">
@@ -44352,11 +44357,11 @@
       <c r="AR103" s="166"/>
       <c r="AS103" s="98"/>
     </row>
-    <row r="104" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="104" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="220" t="s">
         <v>614</v>
       </c>
-      <c r="B104" s="287" t="s">
+      <c r="B104" s="292" t="s">
         <v>615</v>
       </c>
       <c r="C104" s="228" t="s">
@@ -44426,9 +44431,9 @@
       <c r="AR104" s="166"/>
       <c r="AS104" s="98"/>
     </row>
-    <row r="105" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="105" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="220"/>
-      <c r="B105" s="294"/>
+      <c r="B105" s="291"/>
       <c r="C105" s="228" t="s">
         <v>617</v>
       </c>
@@ -44496,9 +44501,9 @@
       <c r="AR105" s="166"/>
       <c r="AS105" s="98"/>
     </row>
-    <row r="106" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="106" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="220"/>
-      <c r="B106" s="295"/>
+      <c r="B106" s="288"/>
       <c r="C106" s="228" t="s">
         <v>618</v>
       </c>
@@ -44566,9 +44571,9 @@
       <c r="AR106" s="166"/>
       <c r="AS106" s="98"/>
     </row>
-    <row r="107" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="107" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="220"/>
-      <c r="B107" s="287" t="s">
+      <c r="B107" s="292" t="s">
         <v>619</v>
       </c>
       <c r="C107" s="228" t="s">
@@ -44638,9 +44643,9 @@
       <c r="AR107" s="166"/>
       <c r="AS107" s="98"/>
     </row>
-    <row r="108" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="108" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="220"/>
-      <c r="B108" s="295"/>
+      <c r="B108" s="288"/>
       <c r="C108" s="228" t="s">
         <v>621</v>
       </c>
@@ -44708,7 +44713,7 @@
       <c r="AR108" s="166"/>
       <c r="AS108" s="98"/>
     </row>
-    <row r="109" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="109" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="220"/>
       <c r="B109" s="220" t="s">
         <v>622</v>
@@ -44780,9 +44785,9 @@
       <c r="AR109" s="166"/>
       <c r="AS109" s="98"/>
     </row>
-    <row r="110" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="110" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="220"/>
-      <c r="B110" s="287" t="s">
+      <c r="B110" s="292" t="s">
         <v>623</v>
       </c>
       <c r="C110" s="223" t="s">
@@ -44856,9 +44861,9 @@
       <c r="AR110" s="166"/>
       <c r="AS110" s="98"/>
     </row>
-    <row r="111" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="111" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="220"/>
-      <c r="B111" s="294"/>
+      <c r="B111" s="291"/>
       <c r="C111" s="223" t="s">
         <v>625</v>
       </c>
@@ -44930,9 +44935,9 @@
       <c r="AR111" s="166"/>
       <c r="AS111" s="98"/>
     </row>
-    <row r="112" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="112" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="220"/>
-      <c r="B112" s="295"/>
+      <c r="B112" s="288"/>
       <c r="C112" s="223" t="s">
         <v>626</v>
       </c>
@@ -45004,9 +45009,9 @@
       <c r="AR112" s="166"/>
       <c r="AS112" s="98"/>
     </row>
-    <row r="113" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="113" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="220"/>
-      <c r="B113" s="287" t="s">
+      <c r="B113" s="292" t="s">
         <v>627</v>
       </c>
       <c r="C113" s="223" t="s">
@@ -45080,9 +45085,9 @@
       <c r="AR113" s="166"/>
       <c r="AS113" s="98"/>
     </row>
-    <row r="114" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="114" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="220"/>
-      <c r="B114" s="295"/>
+      <c r="B114" s="288"/>
       <c r="C114" s="223" t="s">
         <v>629</v>
       </c>
@@ -45154,9 +45159,9 @@
       <c r="AR114" s="166"/>
       <c r="AS114" s="98"/>
     </row>
-    <row r="115" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="115" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="220"/>
-      <c r="B115" s="287" t="s">
+      <c r="B115" s="292" t="s">
         <v>630</v>
       </c>
       <c r="C115" s="223" t="s">
@@ -45226,9 +45231,9 @@
       <c r="AR115" s="166"/>
       <c r="AS115" s="98"/>
     </row>
-    <row r="116" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="116" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="220"/>
-      <c r="B116" s="289"/>
+      <c r="B116" s="294"/>
       <c r="C116" s="223" t="s">
         <v>632</v>
       </c>
@@ -45296,17 +45301,17 @@
       <c r="AR116" s="166"/>
       <c r="AS116" s="98"/>
     </row>
-    <row r="117" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="117" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="220" t="s">
         <v>633</v>
       </c>
-      <c r="B117" s="287" t="s">
+      <c r="B117" s="292" t="s">
         <v>634</v>
       </c>
-      <c r="C117" s="290" t="s">
+      <c r="C117" s="295" t="s">
         <v>363</v>
       </c>
-      <c r="D117" s="293" t="s">
+      <c r="D117" s="287" t="s">
         <v>524</v>
       </c>
       <c r="E117" s="265" t="s">
@@ -45370,11 +45375,11 @@
       <c r="AR117" s="166"/>
       <c r="AS117" s="98"/>
     </row>
-    <row r="118" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="118" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="220"/>
-      <c r="B118" s="288"/>
-      <c r="C118" s="291"/>
-      <c r="D118" s="294"/>
+      <c r="B118" s="293"/>
+      <c r="C118" s="296"/>
+      <c r="D118" s="291"/>
       <c r="E118" s="266" t="s">
         <v>635</v>
       </c>
@@ -45436,11 +45441,11 @@
       <c r="AR118" s="166"/>
       <c r="AS118" s="98"/>
     </row>
-    <row r="119" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="119" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="220"/>
-      <c r="B119" s="289"/>
-      <c r="C119" s="292"/>
-      <c r="D119" s="295"/>
+      <c r="B119" s="294"/>
+      <c r="C119" s="297"/>
+      <c r="D119" s="288"/>
       <c r="E119" s="265" t="s">
         <v>613</v>
       </c>
@@ -45502,7 +45507,7 @@
       <c r="AR119" s="166"/>
       <c r="AS119" s="98"/>
     </row>
-    <row r="120" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="120" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="220" t="s">
         <v>636</v>
       </c>
@@ -45576,7 +45581,7 @@
       <c r="AR120" s="166"/>
       <c r="AS120" s="98"/>
     </row>
-    <row r="121" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="121" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="220" t="s">
         <v>639</v>
       </c>
@@ -45637,7 +45642,7 @@
       <c r="AR121" s="166"/>
       <c r="AS121" s="98"/>
     </row>
-    <row r="122" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="122" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="220"/>
       <c r="B122" s="272"/>
       <c r="C122" s="273" t="s">
@@ -45694,7 +45699,7 @@
       <c r="AR122" s="166"/>
       <c r="AS122" s="98"/>
     </row>
-    <row r="123" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="123" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="220"/>
       <c r="B123" s="272"/>
       <c r="C123" s="273" t="s">
@@ -45751,7 +45756,7 @@
       <c r="AR123" s="166"/>
       <c r="AS123" s="98"/>
     </row>
-    <row r="124" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="124" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="220" t="s">
         <v>644</v>
       </c>
@@ -45825,7 +45830,7 @@
       <c r="AR124" s="166"/>
       <c r="AS124" s="98"/>
     </row>
-    <row r="125" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="125" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="220" t="s">
         <v>646</v>
       </c>
@@ -45899,7 +45904,7 @@
       <c r="AR125" s="166"/>
       <c r="AS125" s="98"/>
     </row>
-    <row r="126" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="126" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="220"/>
       <c r="B126" s="272"/>
       <c r="C126" s="275"/>
@@ -45946,7 +45951,7 @@
       <c r="AR126" s="166"/>
       <c r="AS126" s="98"/>
     </row>
-    <row r="127" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="127" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="220"/>
       <c r="B127" s="272"/>
       <c r="C127" s="273"/>
@@ -45993,7 +45998,7 @@
       <c r="AR127" s="166"/>
       <c r="AS127" s="98"/>
     </row>
-    <row r="128" spans="1:45" s="33" customFormat="1" ht="24.95" customHeight="1">
+    <row r="128" spans="1:45" s="33" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="220"/>
       <c r="B128" s="272"/>
       <c r="C128" s="273"/>
@@ -46048,6 +46053,23 @@
     <protectedRange algorithmName="SHA-512" hashValue="nIgFbwwaucNFUIlJfBOAaBtmCwmoo/DvLiixk3yNj81phuuuEqN7X+LTuCPp4aZATGR/fkzXZAuPH1lCxUasfw==" saltValue="mfgE/rhfySWgZeTRy1w35w==" spinCount="100000" sqref="E119" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="30">
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="F1:W1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C26:C28"/>
@@ -46061,23 +46083,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28" xr:uid="{D36B6968-3E22-48C7-8468-859F15EB52BD}">
@@ -46106,97 +46111,97 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.45">
+    <row r="2" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B2" s="87" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.45">
+    <row r="3" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B3" s="88" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.45">
+    <row r="4" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B4" s="88" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="17.45">
+    <row r="5" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B5" s="87" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17.45">
+    <row r="6" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B6" s="88" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.45">
+    <row r="7" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B7" s="87" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="17.45">
+    <row r="8" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B8" s="88" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="17.45">
+    <row r="9" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B9" s="89" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.45">
+    <row r="10" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B10" s="89" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="17.45">
+    <row r="11" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B11" s="89" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="17.45">
+    <row r="12" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B12" s="89" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="17.45">
+    <row r="13" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B13" s="121" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="17.45">
+    <row r="14" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B14" s="89" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="17.45">
+    <row r="15" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B15" s="89" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="17.45">
+    <row r="16" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B16" s="89" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17.45">
+    <row r="17" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B17" s="88" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="17.45">
+    <row r="18" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B18" s="88" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17.45">
+    <row r="19" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B19" s="90"/>
     </row>
-    <row r="20" spans="2:2" ht="17.45">
+    <row r="20" spans="2:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
         <v>665</v>
       </c>
@@ -46208,12 +46213,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46406,19 +46408,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B732089-40EE-46C7-B8A7-9441882FC0F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC032664-6A23-4813-BF9D-57854DDA7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8F4DC7-C54D-4F3F-8D65-5ABC752E477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8F4DC7-C54D-4F3F-8D65-5ABC752E477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="60ebb789-c820-4802-8158-962ace62fc7c"/>
+    <ds:schemaRef ds:uri="57969566-b200-4db4-94d9-2cebaca5ff91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC032664-6A23-4813-BF9D-57854DDA7605}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B732089-40EE-46C7-B8A7-9441882FC0F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>